--- a/data/trans_orig/P36B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B65A776-02D0-45F3-9C6E-2802AAD7E0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11CEAB6C-5C9C-4162-9153-9DF4FEEA5967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB7A7434-AB3E-460A-A10F-6EC766FCB468}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09C02A35-E527-43C0-B74F-E192BA7358DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="812">
-  <si>
-    <t>Población según la frecuencia de consumición de carne en 2007 (Tasa respuesta: 99,91%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="827">
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -79,2374 +79,2422 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2015 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
   </si>
   <si>
     <t>42,86%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de carne en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de carne en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>39,89%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>37,2%</t>
   </si>
   <si>
-    <t>38,47%</t>
+    <t>38,28%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>38,95%</t>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>43,96%</t>
   </si>
   <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
   </si>
   <si>
     <t>14,59%</t>
@@ -2455,7 +2503,7 @@
     <t>13,39%</t>
   </si>
   <si>
-    <t>15,86%</t>
+    <t>15,85%</t>
   </si>
   <si>
     <t>14,1%</t>
@@ -2464,16 +2512,13 @@
     <t>12,92%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
 </sst>
 </file>
@@ -2885,7 +2930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0108C5CE-F6CF-494D-9536-A35C779AE1EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFA5E56-1DA5-43B2-B54F-F43D300DDDEA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3473,10 +3518,10 @@
         <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>273</v>
@@ -3485,13 +3530,13 @@
         <v>291134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>588</v>
@@ -3500,13 +3545,13 @@
         <v>621287</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3566,13 @@
         <v>98787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -3539,10 +3584,10 @@
         <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -3551,13 +3596,13 @@
         <v>123953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,7 +3658,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3625,10 +3670,10 @@
         <v>6321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>108</v>
@@ -3658,10 +3703,10 @@
         <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3721,13 @@
         <v>25475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3691,13 +3736,13 @@
         <v>27869</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -3706,13 +3751,13 @@
         <v>53345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3772,13 @@
         <v>245501</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>319</v>
@@ -3742,13 +3787,13 @@
         <v>333547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>553</v>
@@ -3757,13 +3802,13 @@
         <v>579048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3823,13 @@
         <v>311834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>290</v>
@@ -3793,13 +3838,13 @@
         <v>302739</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>592</v>
@@ -3808,13 +3853,13 @@
         <v>614574</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3874,13 @@
         <v>48682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -3844,13 +3889,13 @@
         <v>21711</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -3859,13 +3904,13 @@
         <v>70393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,7 +3966,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3933,13 +3978,13 @@
         <v>6009</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3951,10 +3996,10 @@
         <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3963,13 +4008,13 @@
         <v>11232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +4029,13 @@
         <v>12752</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -3999,10 +4044,10 @@
         <v>21127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>162</v>
@@ -4020,7 +4065,7 @@
         <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4080,13 @@
         <v>201146</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>215</v>
@@ -4050,13 +4095,13 @@
         <v>223325</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>402</v>
@@ -4065,13 +4110,13 @@
         <v>424471</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,7 +4131,7 @@
         <v>263793</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>175</v>
@@ -4158,7 +4203,7 @@
         <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -4167,13 +4212,13 @@
         <v>56387</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,7 +4274,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4241,13 +4286,13 @@
         <v>4165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -4256,13 +4301,13 @@
         <v>6712</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -4271,13 +4316,13 @@
         <v>10876</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4337,13 @@
         <v>28663</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4307,13 +4352,13 @@
         <v>12326</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -4322,13 +4367,13 @@
         <v>40989</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4388,13 @@
         <v>149418</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>188</v>
@@ -4358,13 +4403,13 @@
         <v>193800</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>340</v>
@@ -4373,13 +4418,13 @@
         <v>343218</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4439,13 @@
         <v>178221</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>182</v>
@@ -4409,13 +4454,13 @@
         <v>183106</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>365</v>
@@ -4424,13 +4469,13 @@
         <v>361327</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4490,13 @@
         <v>24318</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4460,13 +4505,13 @@
         <v>8042</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>31</v>
@@ -4475,13 +4520,13 @@
         <v>32360</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,7 +4582,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4549,13 +4594,13 @@
         <v>5726</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -4564,13 +4609,13 @@
         <v>7780</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
@@ -4579,13 +4624,13 @@
         <v>13506</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,10 +4648,10 @@
         <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -4615,13 +4660,13 @@
         <v>46987</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>78</v>
@@ -4630,13 +4675,13 @@
         <v>77968</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4696,13 @@
         <v>250247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>338</v>
@@ -4666,13 +4711,13 @@
         <v>349839</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>598</v>
@@ -4681,13 +4726,13 @@
         <v>600087</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4747,13 @@
         <v>200370</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>262</v>
@@ -4717,13 +4762,13 @@
         <v>262050</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>469</v>
@@ -4732,13 +4777,13 @@
         <v>462420</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4798,13 @@
         <v>14373</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -4768,13 +4813,13 @@
         <v>10185</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -4783,13 +4828,13 @@
         <v>24558</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>271</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4902,13 @@
         <v>28153</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -4872,13 +4917,13 @@
         <v>44795</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="M40" s="7">
         <v>69</v>
@@ -4887,13 +4932,13 @@
         <v>72947</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4953,13 @@
         <v>137767</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>165</v>
@@ -4923,13 +4968,13 @@
         <v>172369</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="M41" s="7">
         <v>303</v>
@@ -4938,13 +4983,13 @@
         <v>310136</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +5004,13 @@
         <v>1314131</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>1498</v>
@@ -4974,13 +5019,13 @@
         <v>1539200</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>2790</v>
@@ -4989,13 +5034,13 @@
         <v>2853331</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5055,13 @@
         <v>1523094</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H43" s="7">
         <v>1472</v>
@@ -5025,13 +5070,13 @@
         <v>1497868</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="M43" s="7">
         <v>2965</v>
@@ -5040,13 +5085,13 @@
         <v>3020962</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5106,13 @@
         <v>269850</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H44" s="7">
         <v>116</v>
@@ -5076,13 +5121,13 @@
         <v>122906</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="M44" s="7">
         <v>378</v>
@@ -5091,13 +5136,13 @@
         <v>392756</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5198,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5175,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63DC081-1FEE-4C9E-A06A-C837B8999840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D6524B-8A1C-4201-9CA1-4ED62968CC0A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5192,7 +5237,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5299,13 +5344,13 @@
         <v>3517</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5314,13 +5359,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5329,13 +5374,13 @@
         <v>4730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5395,13 @@
         <v>16154</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5365,13 +5410,13 @@
         <v>18447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -5380,13 +5425,13 @@
         <v>34600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5446,13 @@
         <v>151419</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H6" s="7">
         <v>162</v>
@@ -5419,10 +5464,10 @@
         <v>80</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
         <v>309</v>
@@ -5431,13 +5476,13 @@
         <v>314982</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5497,13 @@
         <v>229447</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -5467,13 +5512,13 @@
         <v>208202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>430</v>
@@ -5482,13 +5527,13 @@
         <v>437649</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5548,13 @@
         <v>50752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -5518,13 +5563,13 @@
         <v>37776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -5533,13 +5578,13 @@
         <v>88528</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5652,13 @@
         <v>3090</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5622,13 +5667,13 @@
         <v>13181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5637,13 +5682,13 @@
         <v>16271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5703,13 @@
         <v>29272</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -5673,13 +5718,13 @@
         <v>54211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -5688,13 +5733,13 @@
         <v>83483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5754,13 @@
         <v>208926</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H12" s="7">
         <v>202</v>
@@ -5724,13 +5769,13 @@
         <v>215812</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M12" s="7">
         <v>405</v>
@@ -5739,13 +5784,13 @@
         <v>424738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5805,13 @@
         <v>365511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>259</v>
@@ -5775,13 +5820,13 @@
         <v>273791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>616</v>
@@ -5790,13 +5835,13 @@
         <v>639302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5856,13 @@
         <v>78334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -5826,13 +5871,13 @@
         <v>53260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -5841,13 +5886,13 @@
         <v>131593</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,7 +5948,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5915,13 +5960,13 @@
         <v>4385</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5930,13 +5975,13 @@
         <v>5264</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5948,10 +5993,10 @@
         <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +6011,13 @@
         <v>48812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -5981,13 +6026,13 @@
         <v>53853</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -5996,13 +6041,13 @@
         <v>102665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6062,13 @@
         <v>261864</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H18" s="7">
         <v>263</v>
@@ -6032,13 +6077,13 @@
         <v>276088</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>516</v>
@@ -6047,13 +6092,13 @@
         <v>537952</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6113,13 @@
         <v>320954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H19" s="7">
         <v>295</v>
@@ -6083,13 +6128,13 @@
         <v>320234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M19" s="7">
         <v>599</v>
@@ -6098,13 +6143,13 @@
         <v>641188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6164,13 @@
         <v>44918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -6134,13 +6179,13 @@
         <v>54413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -6149,13 +6194,13 @@
         <v>99331</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6256,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6226,10 +6271,10 @@
         <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6238,13 +6283,13 @@
         <v>8345</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6253,13 +6298,13 @@
         <v>14531</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6319,13 @@
         <v>40251</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -6289,13 +6334,13 @@
         <v>45801</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -6304,13 +6349,13 @@
         <v>86053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6370,13 @@
         <v>239643</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H24" s="7">
         <v>246</v>
@@ -6340,13 +6385,13 @@
         <v>277376</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>443</v>
+        <v>225</v>
       </c>
       <c r="M24" s="7">
         <v>463</v>
@@ -6355,13 +6400,13 @@
         <v>517018</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>34</v>
+        <v>454</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6421,13 @@
         <v>272388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="H25" s="7">
         <v>212</v>
@@ -6391,13 +6436,13 @@
         <v>247352</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="M25" s="7">
         <v>453</v>
@@ -6406,13 +6451,13 @@
         <v>519740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6472,13 @@
         <v>52083</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>340</v>
+        <v>465</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -6442,13 +6487,13 @@
         <v>35201</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>458</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -6457,13 +6502,13 @@
         <v>87284</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,7 +6564,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6531,13 +6576,13 @@
         <v>4389</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>22</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6546,13 +6591,13 @@
         <v>6308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -6561,13 +6606,13 @@
         <v>10697</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>478</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6627,13 @@
         <v>36753</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -6597,13 +6642,13 @@
         <v>52838</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -6612,13 +6657,13 @@
         <v>89591</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6678,13 @@
         <v>196076</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="H30" s="7">
         <v>194</v>
@@ -6648,13 +6693,13 @@
         <v>217313</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="M30" s="7">
         <v>372</v>
@@ -6663,13 +6708,13 @@
         <v>413389</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6729,13 @@
         <v>170571</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>489</v>
+        <v>380</v>
       </c>
       <c r="H31" s="7">
         <v>144</v>
@@ -6699,28 +6744,28 @@
         <v>154442</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>499</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="M31" s="7">
         <v>300</v>
       </c>
       <c r="N31" s="7">
-        <v>325013</v>
+        <v>325012</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>375</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6780,13 @@
         <v>20586</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>271</v>
+        <v>506</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -6750,13 +6795,13 @@
         <v>14820</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>144</v>
+        <v>509</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -6765,13 +6810,13 @@
         <v>35406</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,7 +6858,7 @@
         <v>796</v>
       </c>
       <c r="N33" s="7">
-        <v>874096</v>
+        <v>874095</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -6827,7 +6872,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6839,13 +6884,13 @@
         <v>8842</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>501</v>
+        <v>16</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>502</v>
+        <v>13</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -6854,13 +6899,13 @@
         <v>11230</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>505</v>
+        <v>270</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -6869,13 +6914,13 @@
         <v>20072</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>508</v>
+        <v>107</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>22</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6935,13 @@
         <v>66958</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>386</v>
+        <v>519</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -6905,13 +6950,13 @@
         <v>100373</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="M35" s="7">
         <v>152</v>
@@ -6920,13 +6965,13 @@
         <v>167331</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6986,13 @@
         <v>272079</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>446</v>
+        <v>529</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="H36" s="7">
         <v>375</v>
@@ -6956,13 +7001,13 @@
         <v>399210</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>520</v>
+        <v>335</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="M36" s="7">
         <v>619</v>
@@ -6971,13 +7016,13 @@
         <v>671289</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +7037,13 @@
         <v>181833</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="H37" s="7">
         <v>193</v>
@@ -7007,13 +7052,13 @@
         <v>206137</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="M37" s="7">
         <v>360</v>
@@ -7022,13 +7067,13 @@
         <v>387970</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7088,13 @@
         <v>24634</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>534</v>
+        <v>25</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -7058,13 +7103,13 @@
         <v>18982</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>515</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="M38" s="7">
         <v>39</v>
@@ -7073,13 +7118,13 @@
         <v>43615</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7192,13 @@
         <v>30408</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>14</v>
+        <v>553</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -7162,13 +7207,13 @@
         <v>45541</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>111</v>
+        <v>555</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>544</v>
+        <v>19</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="M40" s="7">
         <v>68</v>
@@ -7177,13 +7222,13 @@
         <v>75950</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7243,13 @@
         <v>238201</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="H41" s="7">
         <v>300</v>
@@ -7213,13 +7258,13 @@
         <v>325523</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>302</v>
+        <v>487</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>550</v>
+        <v>444</v>
       </c>
       <c r="M41" s="7">
         <v>516</v>
@@ -7228,13 +7273,13 @@
         <v>563723</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7294,13 @@
         <v>1330006</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H42" s="7">
         <v>1442</v>
@@ -7264,13 +7309,13 @@
         <v>1549362</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="M42" s="7">
         <v>2684</v>
@@ -7279,13 +7324,13 @@
         <v>2879368</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7345,13 @@
         <v>1540703</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H43" s="7">
         <v>1306</v>
@@ -7315,13 +7360,13 @@
         <v>1410159</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="M43" s="7">
         <v>2758</v>
@@ -7330,13 +7375,13 @@
         <v>2950862</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7396,13 @@
         <v>271306</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="H44" s="7">
         <v>199</v>
@@ -7366,13 +7411,13 @@
         <v>214452</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>573</v>
+        <v>246</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="M44" s="7">
         <v>456</v>
@@ -7381,13 +7426,13 @@
         <v>485758</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>455</v>
+        <v>584</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,7 +7488,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7465,7 +7510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438C4E89-9273-4730-808A-F6058375F849}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACCD0C3-73D6-44D2-8489-55D261EB467C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7482,7 +7527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7589,13 +7634,13 @@
         <v>1095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7604,13 +7649,13 @@
         <v>4304</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -7619,13 +7664,13 @@
         <v>5399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>590</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>591</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>579</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7685,13 @@
         <v>3077</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -7655,13 +7700,13 @@
         <v>12499</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -7670,13 +7715,13 @@
         <v>15576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,13 +7736,13 @@
         <v>134086</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -7706,13 +7751,13 @@
         <v>154735</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>589</v>
+        <v>499</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>602</v>
       </c>
       <c r="M6" s="7">
         <v>285</v>
@@ -7721,13 +7766,13 @@
         <v>288821</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>439</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7787,13 @@
         <v>214656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="H7" s="7">
         <v>175</v>
@@ -7757,13 +7802,13 @@
         <v>170838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>609</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -7772,13 +7817,13 @@
         <v>385493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7838,13 @@
         <v>64272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -7808,13 +7853,13 @@
         <v>52461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>604</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -7823,13 +7868,13 @@
         <v>116733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,7 +7948,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -7912,13 +7957,13 @@
         <v>2819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>612</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7927,13 +7972,13 @@
         <v>4981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7993,13 @@
         <v>7031</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>628</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>615</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -7963,13 +8008,13 @@
         <v>14964</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>616</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>629</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -7978,13 +8023,13 @@
         <v>21995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>609</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +8044,13 @@
         <v>165082</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="H12" s="7">
         <v>222</v>
@@ -8014,13 +8059,13 @@
         <v>215966</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="M12" s="7">
         <v>380</v>
@@ -8029,13 +8074,13 @@
         <v>381048</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8095,13 @@
         <v>308214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -8065,13 +8110,13 @@
         <v>237623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>642</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="M13" s="7">
         <v>539</v>
@@ -8080,13 +8125,13 @@
         <v>545838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8146,13 @@
         <v>104212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -8116,13 +8161,13 @@
         <v>90188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="M14" s="7">
         <v>194</v>
@@ -8131,13 +8176,13 @@
         <v>194401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8193,7 +8238,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8205,13 +8250,13 @@
         <v>5551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>657</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>658</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -8220,13 +8265,13 @@
         <v>9557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -8235,13 +8280,13 @@
         <v>15108</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>644</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,13 +8301,13 @@
         <v>24693</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>661</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>646</v>
+        <v>475</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -8271,13 +8316,13 @@
         <v>28623</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>648</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>572</v>
+        <v>664</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -8289,10 +8334,10 @@
         <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>665</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8352,13 @@
         <v>211886</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -8322,13 +8367,13 @@
         <v>230376</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -8337,13 +8382,13 @@
         <v>442261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8403,13 @@
         <v>322635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="H19" s="7">
         <v>302</v>
@@ -8373,13 +8418,13 @@
         <v>300020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>680</v>
       </c>
       <c r="M19" s="7">
         <v>609</v>
@@ -8391,10 +8436,10 @@
         <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +8454,13 @@
         <v>97226</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -8424,13 +8469,13 @@
         <v>91073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="M20" s="7">
         <v>184</v>
@@ -8439,13 +8484,13 @@
         <v>188299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,7 +8546,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8513,13 +8558,13 @@
         <v>1921</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>463</v>
+        <v>692</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8528,13 +8573,13 @@
         <v>5158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>677</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -8543,13 +8588,13 @@
         <v>7079</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>679</v>
+        <v>474</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,13 +8609,13 @@
         <v>21509</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>681</v>
+        <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -8582,10 +8627,10 @@
         <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>683</v>
+        <v>359</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -8594,13 +8639,13 @@
         <v>42592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>699</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>475</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,13 +8660,13 @@
         <v>220770</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="H24" s="7">
         <v>217</v>
@@ -8630,13 +8675,13 @@
         <v>233000</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>585</v>
+        <v>705</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="M24" s="7">
         <v>417</v>
@@ -8645,13 +8690,13 @@
         <v>453771</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8666,13 +8711,13 @@
         <v>300804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>695</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>256</v>
@@ -8681,13 +8726,13 @@
         <v>277648</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="M25" s="7">
         <v>526</v>
@@ -8696,13 +8741,13 @@
         <v>578452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,13 +8762,13 @@
         <v>101044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -8732,13 +8777,13 @@
         <v>108181</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="M26" s="7">
         <v>191</v>
@@ -8747,13 +8792,13 @@
         <v>209225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,7 +8854,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8821,13 +8866,13 @@
         <v>2384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>388</v>
+        <v>727</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8836,13 +8881,13 @@
         <v>7207</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>711</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -8851,13 +8896,13 @@
         <v>9591</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>348</v>
+        <v>729</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,13 +8917,13 @@
         <v>14062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>578</v>
+        <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>712</v>
+        <v>284</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -8887,13 +8932,13 @@
         <v>27629</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>715</v>
+        <v>351</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -8902,13 +8947,13 @@
         <v>41691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,13 +8968,13 @@
         <v>200047</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
@@ -8938,13 +8983,13 @@
         <v>218762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>258</v>
+        <v>738</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
       <c r="M30" s="7">
         <v>368</v>
@@ -8953,13 +8998,13 @@
         <v>418809</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>722</v>
+        <v>497</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +9019,13 @@
         <v>203050</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>724</v>
+        <v>126</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="H31" s="7">
         <v>161</v>
@@ -8989,13 +9034,13 @@
         <v>183937</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>727</v>
+        <v>600</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>729</v>
+        <v>45</v>
       </c>
       <c r="M31" s="7">
         <v>343</v>
@@ -9004,13 +9049,13 @@
         <v>386987</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9025,13 +9070,13 @@
         <v>57244</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>734</v>
+        <v>307</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="H32" s="7">
         <v>50</v>
@@ -9040,13 +9085,13 @@
         <v>58150</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="M32" s="7">
         <v>101</v>
@@ -9055,13 +9100,13 @@
         <v>115394</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9117,7 +9162,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9129,13 +9174,13 @@
         <v>8280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>744</v>
+        <v>589</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -9144,13 +9189,13 @@
         <v>12509</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>19</v>
+        <v>656</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="M34" s="7">
         <v>20</v>
@@ -9159,13 +9204,13 @@
         <v>20789</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>749</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9180,13 +9225,13 @@
         <v>29953</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>394</v>
+        <v>763</v>
       </c>
       <c r="H35" s="7">
         <v>37</v>
@@ -9195,13 +9240,13 @@
         <v>43151</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>753</v>
+        <v>231</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="M35" s="7">
         <v>67</v>
@@ -9210,13 +9255,13 @@
         <v>73105</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>755</v>
+        <v>311</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>147</v>
+        <v>766</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9231,13 +9276,13 @@
         <v>229344</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="H36" s="7">
         <v>302</v>
@@ -9246,13 +9291,13 @@
         <v>357007</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="M36" s="7">
         <v>549</v>
@@ -9261,13 +9306,13 @@
         <v>586351</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>449</v>
+        <v>774</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9282,13 +9327,13 @@
         <v>252228</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>95</v>
+        <v>776</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="H37" s="7">
         <v>222</v>
@@ -9297,13 +9342,13 @@
         <v>266774</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>768</v>
+        <v>642</v>
       </c>
       <c r="M37" s="7">
         <v>487</v>
@@ -9312,13 +9357,13 @@
         <v>519003</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9333,13 +9378,13 @@
         <v>68663</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>549</v>
+        <v>785</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="H38" s="7">
         <v>83</v>
@@ -9348,13 +9393,13 @@
         <v>98489</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>774</v>
+        <v>53</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="M38" s="7">
         <v>156</v>
@@ -9363,13 +9408,13 @@
         <v>167152</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,13 +9482,13 @@
         <v>21392</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>237</v>
+        <v>553</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>780</v>
+        <v>17</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="H40" s="7">
         <v>38</v>
@@ -9452,13 +9497,13 @@
         <v>41554</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>642</v>
+        <v>793</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="M40" s="7">
         <v>59</v>
@@ -9467,13 +9512,13 @@
         <v>62946</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>743</v>
+        <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>350</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9488,13 +9533,13 @@
         <v>100326</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>425</v>
+        <v>796</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="H41" s="7">
         <v>138</v>
@@ -9503,13 +9548,13 @@
         <v>147949</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>225</v>
+        <v>798</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="M41" s="7">
         <v>232</v>
@@ -9518,13 +9563,13 @@
         <v>248275</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>787</v>
+        <v>282</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>143</v>
+        <v>801</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>788</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9539,13 +9584,13 @@
         <v>1161215</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="H42" s="7">
         <v>1323</v>
@@ -9554,13 +9599,13 @@
         <v>1409845</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="M42" s="7">
         <v>2434</v>
@@ -9569,13 +9614,13 @@
         <v>2571060</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>409</v>
+        <v>675</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9590,13 +9635,13 @@
         <v>1601587</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>94</v>
+        <v>811</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>377</v>
+        <v>812</v>
       </c>
       <c r="H43" s="7">
         <v>1357</v>
@@ -9605,13 +9650,13 @@
         <v>1436840</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>761</v>
+        <v>815</v>
       </c>
       <c r="M43" s="7">
         <v>2880</v>
@@ -9620,13 +9665,13 @@
         <v>3038427</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9641,13 +9686,13 @@
         <v>492660</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="H44" s="7">
         <v>472</v>
@@ -9656,13 +9701,13 @@
         <v>498542</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>808</v>
+        <v>615</v>
       </c>
       <c r="M44" s="7">
         <v>938</v>
@@ -9671,13 +9716,13 @@
         <v>991203</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9733,7 +9778,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11CEAB6C-5C9C-4162-9153-9DF4FEEA5967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40901A60-196C-4E83-9DAC-E066356BEF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09C02A35-E527-43C0-B74F-E192BA7358DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C06A515-FC5E-4B40-86AA-89B524ED368F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="830">
   <si>
     <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -88,2437 +88,2446 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
     <t>37,2%</t>
   </si>
   <si>
-    <t>38,28%</t>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
+    <t>39,05%</t>
   </si>
   <si>
     <t>43,96%</t>
   </si>
   <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>12,92%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
 </sst>
 </file>
@@ -2930,7 +2939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFA5E56-1DA5-43B2-B54F-F43D300DDDEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2D99E3-DA4C-444C-ACBA-42D8D26D7D62}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3449,7 +3458,7 @@
         <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3473,13 @@
         <v>280327</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
@@ -3479,13 +3488,13 @@
         <v>256127</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>514</v>
@@ -3494,13 +3503,13 @@
         <v>536454</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3524,13 @@
         <v>330153</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>273</v>
@@ -3530,13 +3539,13 @@
         <v>291134</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>588</v>
@@ -3545,13 +3554,13 @@
         <v>621287</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3575,13 @@
         <v>98787</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -3584,10 +3593,10 @@
         <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -3596,13 +3605,13 @@
         <v>123953</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3667,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3670,13 +3679,13 @@
         <v>6321</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3685,13 +3694,13 @@
         <v>3877</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3700,13 +3709,13 @@
         <v>10198</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3730,13 @@
         <v>25475</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3736,13 +3745,13 @@
         <v>27869</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -3751,13 +3760,13 @@
         <v>53345</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3781,13 @@
         <v>245501</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>319</v>
@@ -3787,13 +3796,13 @@
         <v>333547</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>553</v>
@@ -3802,13 +3811,13 @@
         <v>579048</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,10 +3832,10 @@
         <v>311834</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>134</v>
@@ -3850,7 +3859,7 @@
         <v>592</v>
       </c>
       <c r="N19" s="7">
-        <v>614574</v>
+        <v>614573</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>138</v>
@@ -3952,7 +3961,7 @@
         <v>1270</v>
       </c>
       <c r="N21" s="7">
-        <v>1327558</v>
+        <v>1327557</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -3984,7 +3993,7 @@
         <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3993,13 +4002,13 @@
         <v>5223</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -4008,13 +4017,13 @@
         <v>11232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4038,13 @@
         <v>12752</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -4044,13 +4053,13 @@
         <v>21127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -4059,13 +4068,13 @@
         <v>33879</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4089,13 @@
         <v>201146</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>215</v>
@@ -4095,13 +4104,13 @@
         <v>223325</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>402</v>
@@ -4110,13 +4119,13 @@
         <v>424471</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4140,13 @@
         <v>263793</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>240</v>
@@ -4146,13 +4155,13 @@
         <v>245026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>487</v>
@@ -4161,13 +4170,13 @@
         <v>508820</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4191,13 @@
         <v>35446</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -4197,13 +4206,13 @@
         <v>20941</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -4212,13 +4221,13 @@
         <v>56387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,7 +4283,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4286,13 +4295,13 @@
         <v>4165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -4301,13 +4310,13 @@
         <v>6712</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -4316,13 +4325,13 @@
         <v>10876</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4346,13 @@
         <v>28663</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4352,13 +4361,13 @@
         <v>12326</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -4367,13 +4376,13 @@
         <v>40989</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4397,13 @@
         <v>149418</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>188</v>
@@ -4403,13 +4412,13 @@
         <v>193800</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>340</v>
@@ -4418,13 +4427,13 @@
         <v>343218</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4448,13 @@
         <v>178221</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>182</v>
@@ -4454,13 +4463,13 @@
         <v>183106</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>365</v>
@@ -4469,13 +4478,13 @@
         <v>361327</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4499,13 @@
         <v>24318</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4505,13 +4514,13 @@
         <v>8042</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>31</v>
@@ -4520,13 +4529,13 @@
         <v>32360</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,7 +4609,7 @@
         <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -4609,13 +4618,13 @@
         <v>7780</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
@@ -4624,13 +4633,13 @@
         <v>13506</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4654,13 @@
         <v>30982</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -4660,13 +4669,13 @@
         <v>46987</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>78</v>
@@ -4675,13 +4684,13 @@
         <v>77968</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4705,13 @@
         <v>250247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>338</v>
@@ -4711,13 +4720,13 @@
         <v>349839</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>598</v>
@@ -4726,13 +4735,13 @@
         <v>600087</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4756,13 @@
         <v>200370</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>262</v>
@@ -4762,13 +4771,13 @@
         <v>262050</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>469</v>
@@ -4777,13 +4786,13 @@
         <v>462420</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4807,13 @@
         <v>14373</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -4813,13 +4822,13 @@
         <v>10185</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -4828,13 +4837,13 @@
         <v>24558</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>78</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4911,13 @@
         <v>28153</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -4917,10 +4926,10 @@
         <v>44795</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>72</v>
@@ -4932,13 +4941,13 @@
         <v>72947</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4962,13 @@
         <v>137767</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
         <v>165</v>
@@ -4968,13 +4977,13 @@
         <v>172369</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="M41" s="7">
         <v>303</v>
@@ -4983,13 +4992,13 @@
         <v>310136</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>67</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5013,13 @@
         <v>1314131</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>1498</v>
@@ -5019,13 +5028,13 @@
         <v>1539200</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>2790</v>
@@ -5034,13 +5043,13 @@
         <v>2853331</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5064,13 @@
         <v>1523094</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>1472</v>
@@ -5070,13 +5079,13 @@
         <v>1497868</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M43" s="7">
         <v>2965</v>
@@ -5085,13 +5094,13 @@
         <v>3020962</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5115,13 @@
         <v>269850</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H44" s="7">
         <v>116</v>
@@ -5121,13 +5130,13 @@
         <v>122906</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="M44" s="7">
         <v>378</v>
@@ -5136,13 +5145,13 @@
         <v>392756</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>312</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,7 +5207,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5220,7 +5229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D6524B-8A1C-4201-9CA1-4ED62968CC0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E2706-7437-4A40-89FB-BE522C67359F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5237,7 +5246,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5344,13 +5353,13 @@
         <v>3517</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5359,13 +5368,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5374,13 +5383,13 @@
         <v>4730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5404,13 @@
         <v>16154</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5410,13 +5419,13 @@
         <v>18447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -5425,13 +5434,13 @@
         <v>34600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5455,13 @@
         <v>151419</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="H6" s="7">
         <v>162</v>
@@ -5461,13 +5470,13 @@
         <v>163564</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>309</v>
@@ -5476,13 +5485,13 @@
         <v>314982</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5506,13 @@
         <v>229447</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -5512,13 +5521,13 @@
         <v>208202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>430</v>
@@ -5527,13 +5536,13 @@
         <v>437649</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5557,13 @@
         <v>50752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -5563,13 +5572,13 @@
         <v>37776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -5578,13 +5587,13 @@
         <v>88528</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5661,13 @@
         <v>3090</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5667,13 +5676,13 @@
         <v>13181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5682,13 +5691,13 @@
         <v>16271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5712,13 @@
         <v>29272</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -5718,13 +5727,13 @@
         <v>54211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -5733,13 +5742,13 @@
         <v>83483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5763,13 @@
         <v>208926</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="H12" s="7">
         <v>202</v>
@@ -5769,13 +5778,13 @@
         <v>215812</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M12" s="7">
         <v>405</v>
@@ -5784,13 +5793,13 @@
         <v>424738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5814,13 @@
         <v>365511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>259</v>
@@ -5820,13 +5829,13 @@
         <v>273791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>304</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>616</v>
@@ -5835,13 +5844,13 @@
         <v>639302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5865,13 @@
         <v>78334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -5871,13 +5880,13 @@
         <v>53260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -5886,13 +5895,13 @@
         <v>131593</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,7 +5957,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5960,13 +5969,13 @@
         <v>4385</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5975,13 +5984,13 @@
         <v>5264</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5993,10 +6002,10 @@
         <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6020,13 @@
         <v>48812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -6026,13 +6035,13 @@
         <v>53853</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -6041,13 +6050,13 @@
         <v>102665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6071,13 @@
         <v>261864</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="H18" s="7">
         <v>263</v>
@@ -6077,13 +6086,13 @@
         <v>276088</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>412</v>
+        <v>341</v>
       </c>
       <c r="M18" s="7">
         <v>516</v>
@@ -6092,13 +6101,13 @@
         <v>537952</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6122,13 @@
         <v>320954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>295</v>
@@ -6128,13 +6137,13 @@
         <v>320234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>599</v>
@@ -6143,13 +6152,13 @@
         <v>641188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6173,13 @@
         <v>44918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -6179,13 +6188,13 @@
         <v>54413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -6194,13 +6203,13 @@
         <v>99331</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6277,13 @@
         <v>6186</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>435</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6283,13 +6292,13 @@
         <v>8345</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6298,13 +6307,13 @@
         <v>14531</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6328,13 @@
         <v>40251</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>447</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -6334,13 +6343,13 @@
         <v>45801</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -6349,13 +6358,13 @@
         <v>86053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6379,13 @@
         <v>239643</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="H24" s="7">
         <v>246</v>
@@ -6385,13 +6394,13 @@
         <v>277376</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>225</v>
+        <v>457</v>
       </c>
       <c r="M24" s="7">
         <v>463</v>
@@ -6400,13 +6409,13 @@
         <v>517018</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6430,13 @@
         <v>272388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H25" s="7">
         <v>212</v>
@@ -6436,13 +6445,13 @@
         <v>247352</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M25" s="7">
         <v>453</v>
@@ -6451,13 +6460,13 @@
         <v>519740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6481,13 @@
         <v>52083</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -6487,13 +6496,13 @@
         <v>35201</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -6502,13 +6511,13 @@
         <v>87284</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,7 +6573,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6576,13 +6585,13 @@
         <v>4389</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6591,13 +6600,13 @@
         <v>6308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>71</v>
+        <v>482</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -6606,13 +6615,13 @@
         <v>10697</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>479</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6636,13 @@
         <v>36753</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -6642,13 +6651,13 @@
         <v>52838</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -6657,13 +6666,13 @@
         <v>89591</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6687,13 @@
         <v>196076</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>490</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H30" s="7">
         <v>194</v>
@@ -6693,13 +6702,13 @@
         <v>217313</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M30" s="7">
         <v>372</v>
@@ -6708,13 +6717,13 @@
         <v>413389</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6738,13 @@
         <v>170571</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>380</v>
+        <v>503</v>
       </c>
       <c r="H31" s="7">
         <v>144</v>
@@ -6744,13 +6753,13 @@
         <v>154442</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M31" s="7">
         <v>300</v>
@@ -6759,13 +6768,13 @@
         <v>325012</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6789,13 @@
         <v>20586</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -6795,13 +6804,13 @@
         <v>14820</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -6810,13 +6819,13 @@
         <v>35406</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,13 +6893,13 @@
         <v>8842</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>16</v>
+        <v>516</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>13</v>
+        <v>517</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -6899,13 +6908,13 @@
         <v>11230</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>515</v>
+        <v>404</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>270</v>
+        <v>519</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>516</v>
+        <v>100</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -6914,13 +6923,13 @@
         <v>20072</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>107</v>
+        <v>521</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,13 +6944,13 @@
         <v>66958</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -6950,13 +6959,13 @@
         <v>100373</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M35" s="7">
         <v>152</v>
@@ -6965,13 +6974,13 @@
         <v>167331</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,13 +6995,13 @@
         <v>272079</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H36" s="7">
         <v>375</v>
@@ -7001,13 +7010,13 @@
         <v>399210</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>335</v>
+        <v>536</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="M36" s="7">
         <v>619</v>
@@ -7016,13 +7025,13 @@
         <v>671289</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,13 +7046,13 @@
         <v>181833</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H37" s="7">
         <v>193</v>
@@ -7052,13 +7061,13 @@
         <v>206137</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="M37" s="7">
         <v>360</v>
@@ -7067,13 +7076,13 @@
         <v>387970</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,13 +7097,13 @@
         <v>24634</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>25</v>
+        <v>550</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -7103,13 +7112,13 @@
         <v>18982</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="M38" s="7">
         <v>39</v>
@@ -7118,13 +7127,13 @@
         <v>43615</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7201,13 @@
         <v>30408</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>553</v>
+        <v>14</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>554</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -7207,13 +7216,13 @@
         <v>45541</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>555</v>
+        <v>110</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>19</v>
+        <v>559</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>509</v>
+        <v>560</v>
       </c>
       <c r="M40" s="7">
         <v>68</v>
@@ -7222,13 +7231,13 @@
         <v>75950</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,13 +7252,13 @@
         <v>238201</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>557</v>
+        <v>414</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>558</v>
+        <v>473</v>
       </c>
       <c r="H41" s="7">
         <v>300</v>
@@ -7258,13 +7267,13 @@
         <v>325523</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>487</v>
+        <v>563</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="M41" s="7">
         <v>516</v>
@@ -7273,13 +7282,13 @@
         <v>563723</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7303,13 @@
         <v>1330006</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H42" s="7">
         <v>1442</v>
@@ -7309,13 +7318,13 @@
         <v>1549362</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="M42" s="7">
         <v>2684</v>
@@ -7324,13 +7333,13 @@
         <v>2879368</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>570</v>
+        <v>456</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,13 +7354,13 @@
         <v>1540703</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H43" s="7">
         <v>1306</v>
@@ -7360,13 +7369,13 @@
         <v>1410159</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="M43" s="7">
         <v>2758</v>
@@ -7375,13 +7384,13 @@
         <v>2950862</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7405,13 @@
         <v>271306</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>431</v>
+        <v>585</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>581</v>
+        <v>26</v>
       </c>
       <c r="H44" s="7">
         <v>199</v>
@@ -7411,13 +7420,13 @@
         <v>214452</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="M44" s="7">
         <v>456</v>
@@ -7426,13 +7435,13 @@
         <v>485758</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,7 +7468,7 @@
         <v>3287</v>
       </c>
       <c r="I45" s="7">
-        <v>3545037</v>
+        <v>3545036</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -7488,7 +7497,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -7510,7 +7519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACCD0C3-73D6-44D2-8489-55D261EB467C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF5A31B-FE7F-401B-B01B-0F7DB3C21BA4}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7527,7 +7536,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7634,13 +7643,13 @@
         <v>1095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7649,13 +7658,13 @@
         <v>4304</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>589</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -7664,13 +7673,13 @@
         <v>5399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>591</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7694,13 @@
         <v>3077</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>593</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -7700,13 +7709,13 @@
         <v>12499</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>509</v>
+        <v>596</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>595</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -7715,13 +7724,13 @@
         <v>15576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>598</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7745,13 @@
         <v>134086</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -7751,13 +7760,13 @@
         <v>154735</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>499</v>
+        <v>604</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M6" s="7">
         <v>285</v>
@@ -7766,13 +7775,13 @@
         <v>288821</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>605</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7796,13 @@
         <v>214656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H7" s="7">
         <v>175</v>
@@ -7802,13 +7811,13 @@
         <v>170838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -7817,13 +7826,13 @@
         <v>385493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7847,13 @@
         <v>64272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -7853,13 +7862,13 @@
         <v>52461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>621</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -7868,13 +7877,13 @@
         <v>116733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,7 +7957,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -7957,13 +7966,13 @@
         <v>2819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>624</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>628</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7972,13 +7981,13 @@
         <v>4981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +8002,13 @@
         <v>7031</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>116</v>
+        <v>633</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -8008,13 +8017,13 @@
         <v>14964</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>635</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -8023,13 +8032,13 @@
         <v>21995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>636</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8053,13 @@
         <v>165082</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="H12" s="7">
         <v>222</v>
@@ -8059,13 +8068,13 @@
         <v>215966</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="M12" s="7">
         <v>380</v>
@@ -8074,13 +8083,13 @@
         <v>381048</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8104,13 @@
         <v>308214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -8110,13 +8119,13 @@
         <v>237623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="M13" s="7">
         <v>539</v>
@@ -8125,13 +8134,13 @@
         <v>545838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,13 +8155,13 @@
         <v>104212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -8161,13 +8170,13 @@
         <v>90188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>650</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="M14" s="7">
         <v>194</v>
@@ -8176,13 +8185,13 @@
         <v>194401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,7 +8247,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8250,13 +8259,13 @@
         <v>5551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>657</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -8265,13 +8274,13 @@
         <v>9557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>659</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>664</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -8283,10 +8292,10 @@
         <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>660</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,13 +8310,13 @@
         <v>24693</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -8316,13 +8325,13 @@
         <v>28623</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>667</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>663</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>664</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -8334,10 +8343,10 @@
         <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>666</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,13 +8361,13 @@
         <v>211886</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -8367,13 +8376,13 @@
         <v>230376</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -8382,13 +8391,13 @@
         <v>442261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,13 +8412,13 @@
         <v>322635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="H19" s="7">
         <v>302</v>
@@ -8418,13 +8427,13 @@
         <v>300020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="M19" s="7">
         <v>609</v>
@@ -8436,10 +8445,10 @@
         <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>646</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8454,13 +8463,13 @@
         <v>97226</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -8469,13 +8478,13 @@
         <v>91073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="M20" s="7">
         <v>184</v>
@@ -8484,13 +8493,13 @@
         <v>188299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8558,13 +8567,13 @@
         <v>1921</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>692</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8573,10 +8582,10 @@
         <v>5158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>696</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>64</v>
@@ -8588,13 +8597,13 @@
         <v>7079</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>695</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8609,13 +8618,13 @@
         <v>21509</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>145</v>
+        <v>367</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>697</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -8624,13 +8633,13 @@
         <v>21083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>699</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -8639,13 +8648,13 @@
         <v>42592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>475</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8660,13 +8669,13 @@
         <v>220770</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H24" s="7">
         <v>217</v>
@@ -8675,13 +8684,13 @@
         <v>233000</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M24" s="7">
         <v>417</v>
@@ -8690,13 +8699,13 @@
         <v>453771</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>709</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8711,13 +8720,13 @@
         <v>300804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>713</v>
       </c>
       <c r="H25" s="7">
         <v>256</v>
@@ -8726,13 +8735,13 @@
         <v>277648</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M25" s="7">
         <v>526</v>
@@ -8741,13 +8750,13 @@
         <v>578452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8762,13 +8771,13 @@
         <v>101044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -8777,13 +8786,13 @@
         <v>108181</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M26" s="7">
         <v>191</v>
@@ -8792,13 +8801,13 @@
         <v>209225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8854,7 +8863,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8866,13 +8875,13 @@
         <v>2384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>624</v>
+        <v>239</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>727</v>
+        <v>271</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8881,13 +8890,13 @@
         <v>7207</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>659</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -8896,13 +8905,13 @@
         <v>9591</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>729</v>
+        <v>629</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>596</v>
+        <v>730</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8926,13 @@
         <v>14062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>16</v>
+        <v>732</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -8932,13 +8941,13 @@
         <v>27629</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>731</v>
+        <v>513</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>351</v>
+        <v>734</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -8947,13 +8956,13 @@
         <v>41691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>736</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>23</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8968,13 +8977,13 @@
         <v>200047</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
@@ -8983,13 +8992,13 @@
         <v>218762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>382</v>
+        <v>742</v>
       </c>
       <c r="M30" s="7">
         <v>368</v>
@@ -8998,13 +9007,13 @@
         <v>418809</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>497</v>
+        <v>744</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9019,13 +9028,13 @@
         <v>203050</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="H31" s="7">
         <v>161</v>
@@ -9034,13 +9043,13 @@
         <v>183937</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>600</v>
+        <v>748</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="M31" s="7">
         <v>343</v>
@@ -9049,13 +9058,13 @@
         <v>386987</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>746</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9070,13 +9079,13 @@
         <v>57244</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>307</v>
+        <v>489</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="H32" s="7">
         <v>50</v>
@@ -9085,13 +9094,13 @@
         <v>58150</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="M32" s="7">
         <v>101</v>
@@ -9100,13 +9109,13 @@
         <v>115394</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9174,13 +9183,13 @@
         <v>8280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>755</v>
+        <v>284</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>589</v>
+        <v>164</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -9189,13 +9198,13 @@
         <v>12509</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>656</v>
+        <v>762</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="M34" s="7">
         <v>20</v>
@@ -9204,13 +9213,13 @@
         <v>20789</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>759</v>
+        <v>593</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>22</v>
+        <v>765</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9225,13 +9234,13 @@
         <v>29953</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>762</v>
+        <v>328</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="H35" s="7">
         <v>37</v>
@@ -9240,13 +9249,13 @@
         <v>43151</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>764</v>
+        <v>330</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="M35" s="7">
         <v>67</v>
@@ -9255,13 +9264,13 @@
         <v>73105</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>311</v>
+        <v>769</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>766</v>
+        <v>635</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9276,13 +9285,13 @@
         <v>229344</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H36" s="7">
         <v>302</v>
@@ -9291,13 +9300,13 @@
         <v>357007</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="M36" s="7">
         <v>549</v>
@@ -9306,13 +9315,13 @@
         <v>586351</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>775</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9327,13 +9336,13 @@
         <v>252228</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H37" s="7">
         <v>222</v>
@@ -9342,13 +9351,13 @@
         <v>266774</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="M37" s="7">
         <v>487</v>
@@ -9357,13 +9366,13 @@
         <v>519003</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9378,10 +9387,10 @@
         <v>68663</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>785</v>
+        <v>229</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>786</v>
@@ -9393,13 +9402,13 @@
         <v>98489</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>53</v>
+        <v>787</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M38" s="7">
         <v>156</v>
@@ -9408,13 +9417,13 @@
         <v>167152</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9482,13 +9491,13 @@
         <v>21392</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>553</v>
+        <v>241</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>17</v>
+        <v>793</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>692</v>
+        <v>794</v>
       </c>
       <c r="H40" s="7">
         <v>38</v>
@@ -9497,13 +9506,13 @@
         <v>41554</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>793</v>
+        <v>662</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>794</v>
+        <v>761</v>
       </c>
       <c r="M40" s="7">
         <v>59</v>
@@ -9512,13 +9521,13 @@
         <v>62946</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>439</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9533,13 +9542,13 @@
         <v>100326</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>361</v>
+        <v>797</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H41" s="7">
         <v>138</v>
@@ -9548,10 +9557,10 @@
         <v>147949</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>798</v>
+        <v>635</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>799</v>
+        <v>518</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>800</v>
@@ -9563,13 +9572,13 @@
         <v>248275</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>282</v>
+        <v>801</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>118</v>
+        <v>803</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9584,13 +9593,13 @@
         <v>1161215</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H42" s="7">
         <v>1323</v>
@@ -9599,13 +9608,13 @@
         <v>1409845</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M42" s="7">
         <v>2434</v>
@@ -9614,13 +9623,13 @@
         <v>2571060</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>675</v>
+        <v>811</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9635,13 +9644,13 @@
         <v>1601587</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="H43" s="7">
         <v>1357</v>
@@ -9650,13 +9659,13 @@
         <v>1436840</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>815</v>
+        <v>418</v>
       </c>
       <c r="M43" s="7">
         <v>2880</v>
@@ -9665,13 +9674,13 @@
         <v>3038427</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9686,13 +9695,13 @@
         <v>492660</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H44" s="7">
         <v>472</v>
@@ -9701,13 +9710,13 @@
         <v>498542</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>615</v>
+        <v>826</v>
       </c>
       <c r="M44" s="7">
         <v>938</v>
@@ -9716,13 +9725,13 @@
         <v>991203</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9778,7 +9787,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40901A60-196C-4E83-9DAC-E066356BEF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F376B15-3A89-4D6B-9BD3-1E0E3C83E5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C06A515-FC5E-4B40-86AA-89B524ED368F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D762804-1117-4098-ABE4-79FBCC50D06D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="812">
   <si>
     <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -79,823 +79,2320 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>3,53%</t>
@@ -904,1630 +2401,79 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
   </si>
   <si>
     <t>41,74%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
   </si>
   <si>
     <t>38,95%</t>
   </si>
   <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
     <t>43,96%</t>
   </si>
   <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
 </sst>
 </file>
@@ -2939,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2D99E3-DA4C-444C-ACBA-42D8D26D7D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D94C12B-C5B2-4E65-8631-013664C67B97}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3458,7 +3404,7 @@
         <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3419,13 @@
         <v>280327</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
@@ -3488,13 +3434,13 @@
         <v>256127</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>514</v>
@@ -3503,13 +3449,13 @@
         <v>536454</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,10 +3470,10 @@
         <v>330153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>90</v>
@@ -3608,10 +3554,10 @@
         <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,7 +3613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3679,13 +3625,13 @@
         <v>6321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3694,13 +3640,13 @@
         <v>3877</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3709,10 +3655,10 @@
         <v>10198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>113</v>
@@ -3733,10 +3679,10 @@
         <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3745,13 +3691,13 @@
         <v>27869</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -3760,13 +3706,13 @@
         <v>53345</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3727,13 @@
         <v>245501</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>319</v>
@@ -3796,13 +3742,13 @@
         <v>333547</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>553</v>
@@ -3811,13 +3757,13 @@
         <v>579048</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3778,13 @@
         <v>311834</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>290</v>
@@ -3847,28 +3793,28 @@
         <v>302739</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>592</v>
       </c>
       <c r="N19" s="7">
-        <v>614573</v>
+        <v>614574</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3829,13 @@
         <v>48682</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -3898,13 +3844,13 @@
         <v>21711</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -3913,13 +3859,13 @@
         <v>70393</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,7 +3907,7 @@
         <v>1270</v>
       </c>
       <c r="N21" s="7">
-        <v>1327557</v>
+        <v>1327558</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -3975,7 +3921,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3987,13 +3933,13 @@
         <v>6009</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4002,13 +3948,13 @@
         <v>5223</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -4017,13 +3963,13 @@
         <v>11232</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +3984,13 @@
         <v>12752</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -4053,13 +3999,13 @@
         <v>21127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -4068,13 +4014,13 @@
         <v>33879</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4035,13 @@
         <v>201146</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>215</v>
@@ -4104,13 +4050,13 @@
         <v>223325</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>402</v>
@@ -4119,13 +4065,13 @@
         <v>424471</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4086,13 @@
         <v>263793</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>240</v>
@@ -4155,13 +4101,13 @@
         <v>245026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>487</v>
@@ -4170,13 +4116,13 @@
         <v>508820</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4137,13 @@
         <v>35446</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -4206,13 +4152,13 @@
         <v>20941</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -4221,13 +4167,13 @@
         <v>56387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,7 +4229,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4295,13 +4241,13 @@
         <v>4165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -4310,13 +4256,13 @@
         <v>6712</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -4325,13 +4271,13 @@
         <v>10876</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4292,13 @@
         <v>28663</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4361,13 +4307,13 @@
         <v>12326</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -4376,13 +4322,13 @@
         <v>40989</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4343,13 @@
         <v>149418</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="H30" s="7">
         <v>188</v>
@@ -4412,13 +4358,13 @@
         <v>193800</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>340</v>
@@ -4427,13 +4373,13 @@
         <v>343218</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4394,13 @@
         <v>178221</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>182</v>
@@ -4463,13 +4409,13 @@
         <v>183106</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>365</v>
@@ -4478,13 +4424,13 @@
         <v>361327</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4445,13 @@
         <v>24318</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4514,13 +4460,13 @@
         <v>8042</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>31</v>
@@ -4529,13 +4475,13 @@
         <v>32360</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,7 +4537,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4603,13 +4549,13 @@
         <v>5726</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -4618,13 +4564,13 @@
         <v>7780</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
@@ -4633,13 +4579,13 @@
         <v>13506</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4600,13 @@
         <v>30982</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -4669,13 +4615,13 @@
         <v>46987</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>78</v>
@@ -4684,13 +4630,13 @@
         <v>77968</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4651,13 @@
         <v>250247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>338</v>
@@ -4720,13 +4666,13 @@
         <v>349839</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>598</v>
@@ -4735,13 +4681,13 @@
         <v>600087</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4702,13 @@
         <v>200370</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>262</v>
@@ -4771,13 +4717,13 @@
         <v>262050</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>469</v>
@@ -4786,13 +4732,13 @@
         <v>462420</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4753,13 @@
         <v>14373</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -4822,13 +4768,13 @@
         <v>10185</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -4837,13 +4783,13 @@
         <v>24558</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4857,13 @@
         <v>28153</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -4926,13 +4872,13 @@
         <v>44795</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="M40" s="7">
         <v>69</v>
@@ -4941,13 +4887,13 @@
         <v>72947</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4908,13 @@
         <v>137767</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H41" s="7">
         <v>165</v>
@@ -4977,13 +4923,13 @@
         <v>172369</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M41" s="7">
         <v>303</v>
@@ -4992,13 +4938,13 @@
         <v>310136</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +4959,13 @@
         <v>1314131</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="H42" s="7">
         <v>1498</v>
@@ -5028,13 +4974,13 @@
         <v>1539200</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M42" s="7">
         <v>2790</v>
@@ -5043,13 +4989,13 @@
         <v>2853331</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5010,13 @@
         <v>1523094</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H43" s="7">
         <v>1472</v>
@@ -5079,13 +5025,13 @@
         <v>1497868</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="M43" s="7">
         <v>2965</v>
@@ -5094,13 +5040,13 @@
         <v>3020962</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5061,13 @@
         <v>269850</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>116</v>
@@ -5130,13 +5076,13 @@
         <v>122906</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M44" s="7">
         <v>378</v>
@@ -5145,13 +5091,13 @@
         <v>392756</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>24</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,7 +5153,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5229,7 +5175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E2706-7437-4A40-89FB-BE522C67359F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C50BF67-AB1B-420F-830D-0DFC3A9E235F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5246,7 +5192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5353,13 +5299,13 @@
         <v>3517</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>310</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5368,13 +5314,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5383,13 +5329,13 @@
         <v>4730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5350,13 @@
         <v>16154</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5419,13 +5365,13 @@
         <v>18447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -5434,13 +5380,13 @@
         <v>34600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5401,13 @@
         <v>151419</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H6" s="7">
         <v>162</v>
@@ -5470,13 +5416,13 @@
         <v>163564</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="M6" s="7">
         <v>309</v>
@@ -5485,13 +5431,13 @@
         <v>314982</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5452,13 @@
         <v>229447</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -5521,13 +5467,13 @@
         <v>208202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>430</v>
@@ -5536,13 +5482,13 @@
         <v>437649</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5503,13 @@
         <v>50752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -5572,13 +5518,13 @@
         <v>37776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -5587,13 +5533,13 @@
         <v>88528</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5607,13 @@
         <v>3090</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5676,13 +5622,13 @@
         <v>13181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5691,13 +5637,13 @@
         <v>16271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5658,13 @@
         <v>29272</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -5727,13 +5673,13 @@
         <v>54211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -5742,13 +5688,13 @@
         <v>83483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5709,13 @@
         <v>208926</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>202</v>
@@ -5778,13 +5724,13 @@
         <v>215812</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="M12" s="7">
         <v>405</v>
@@ -5793,13 +5739,13 @@
         <v>424738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5760,13 @@
         <v>365511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>259</v>
@@ -5829,13 +5775,13 @@
         <v>273791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>616</v>
@@ -5844,13 +5790,13 @@
         <v>639302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5811,13 @@
         <v>78334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -5880,13 +5826,13 @@
         <v>53260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -5895,13 +5841,13 @@
         <v>131593</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5903,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5969,13 +5915,13 @@
         <v>4385</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5984,13 +5930,13 @@
         <v>5264</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -6002,10 +5948,10 @@
         <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +5966,13 @@
         <v>48812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -6035,13 +5981,13 @@
         <v>53853</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -6050,13 +5996,13 @@
         <v>102665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>52</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6017,13 @@
         <v>261864</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H18" s="7">
         <v>263</v>
@@ -6086,13 +6032,13 @@
         <v>276088</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="M18" s="7">
         <v>516</v>
@@ -6101,13 +6047,13 @@
         <v>537952</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6068,13 @@
         <v>320954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>258</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>295</v>
@@ -6137,13 +6083,13 @@
         <v>320234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>599</v>
@@ -6152,13 +6098,13 @@
         <v>641188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6119,13 @@
         <v>44918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -6188,13 +6134,13 @@
         <v>54413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -6203,13 +6149,13 @@
         <v>99331</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,7 +6211,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6277,13 +6223,13 @@
         <v>6186</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6292,13 +6238,13 @@
         <v>8345</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6307,13 +6253,13 @@
         <v>14531</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6274,13 @@
         <v>40251</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -6343,13 +6289,13 @@
         <v>45801</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>450</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -6358,13 +6304,13 @@
         <v>86053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6325,13 @@
         <v>239643</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>217</v>
+        <v>441</v>
       </c>
       <c r="H24" s="7">
         <v>246</v>
@@ -6394,13 +6340,13 @@
         <v>277376</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>456</v>
+        <v>375</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="M24" s="7">
         <v>463</v>
@@ -6409,13 +6355,13 @@
         <v>517018</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>459</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6376,13 @@
         <v>272388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>212</v>
@@ -6445,13 +6391,13 @@
         <v>247352</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>453</v>
@@ -6460,13 +6406,13 @@
         <v>519740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6427,13 @@
         <v>52083</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>469</v>
+        <v>340</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -6496,13 +6442,13 @@
         <v>35201</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>334</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -6511,13 +6457,13 @@
         <v>87284</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,7 +6519,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6585,13 +6531,13 @@
         <v>4389</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>479</v>
+        <v>22</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6600,13 +6546,13 @@
         <v>6308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>482</v>
+        <v>263</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -6615,13 +6561,13 @@
         <v>10697</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>241</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6582,13 @@
         <v>36753</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -6651,13 +6597,13 @@
         <v>52838</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -6666,13 +6612,13 @@
         <v>89591</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6633,13 @@
         <v>196076</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="H30" s="7">
         <v>194</v>
@@ -6702,13 +6648,13 @@
         <v>217313</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="M30" s="7">
         <v>372</v>
@@ -6717,13 +6663,13 @@
         <v>413389</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +6684,13 @@
         <v>170571</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="H31" s="7">
         <v>144</v>
@@ -6753,28 +6699,28 @@
         <v>154442</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>504</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="M31" s="7">
         <v>300</v>
       </c>
       <c r="N31" s="7">
-        <v>325012</v>
+        <v>325013</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>509</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6735,13 @@
         <v>20586</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -6804,13 +6750,13 @@
         <v>14820</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>512</v>
+        <v>144</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -6819,13 +6765,13 @@
         <v>35406</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>453</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,7 +6813,7 @@
         <v>796</v>
       </c>
       <c r="N33" s="7">
-        <v>874095</v>
+        <v>874096</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -6881,7 +6827,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6893,13 +6839,13 @@
         <v>8842</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -6908,13 +6854,13 @@
         <v>11230</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>404</v>
+        <v>504</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>100</v>
+        <v>506</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -6923,13 +6869,13 @@
         <v>20072</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>522</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,13 +6890,13 @@
         <v>66958</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>523</v>
+        <v>386</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -6959,13 +6905,13 @@
         <v>100373</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="M35" s="7">
         <v>152</v>
@@ -6974,13 +6920,13 @@
         <v>167331</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +6941,13 @@
         <v>272079</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>533</v>
+        <v>446</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="H36" s="7">
         <v>375</v>
@@ -7010,13 +6956,13 @@
         <v>399210</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="M36" s="7">
         <v>619</v>
@@ -7025,13 +6971,13 @@
         <v>671289</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,13 +6992,13 @@
         <v>181833</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="H37" s="7">
         <v>193</v>
@@ -7061,13 +7007,13 @@
         <v>206137</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="M37" s="7">
         <v>360</v>
@@ -7076,13 +7022,13 @@
         <v>387970</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7043,13 @@
         <v>24634</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -7112,13 +7058,13 @@
         <v>18982</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>516</v>
+        <v>264</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="M38" s="7">
         <v>39</v>
@@ -7127,13 +7073,13 @@
         <v>43615</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7147,13 @@
         <v>30408</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>543</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -7216,13 +7162,13 @@
         <v>45541</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="M40" s="7">
         <v>68</v>
@@ -7231,13 +7177,13 @@
         <v>75950</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7198,13 @@
         <v>238201</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>414</v>
+        <v>547</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>473</v>
+        <v>548</v>
       </c>
       <c r="H41" s="7">
         <v>300</v>
@@ -7267,13 +7213,13 @@
         <v>325523</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>563</v>
+        <v>302</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="M41" s="7">
         <v>516</v>
@@ -7282,13 +7228,13 @@
         <v>563723</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7249,13 @@
         <v>1330006</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>569</v>
+        <v>527</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="H42" s="7">
         <v>1442</v>
@@ -7318,13 +7264,13 @@
         <v>1549362</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="M42" s="7">
         <v>2684</v>
@@ -7333,13 +7279,13 @@
         <v>2879368</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>456</v>
+        <v>560</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,13 +7300,13 @@
         <v>1540703</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="H43" s="7">
         <v>1306</v>
@@ -7369,13 +7315,13 @@
         <v>1410159</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="M43" s="7">
         <v>2758</v>
@@ -7384,13 +7330,13 @@
         <v>2950862</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7351,13 @@
         <v>271306</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>585</v>
+        <v>436</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>26</v>
+        <v>571</v>
       </c>
       <c r="H44" s="7">
         <v>199</v>
@@ -7420,13 +7366,13 @@
         <v>214452</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>147</v>
+        <v>573</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="M44" s="7">
         <v>456</v>
@@ -7435,13 +7381,13 @@
         <v>485758</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>587</v>
+        <v>455</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,7 +7414,7 @@
         <v>3287</v>
       </c>
       <c r="I45" s="7">
-        <v>3545036</v>
+        <v>3545037</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -7497,7 +7443,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7519,7 +7465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF5A31B-FE7F-401B-B01B-0F7DB3C21BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD9760F-25AC-45D8-81E7-0845CE0EC7CD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7536,7 +7482,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7643,13 +7589,13 @@
         <v>1095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7658,13 +7604,13 @@
         <v>4304</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>535</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -7673,13 +7619,13 @@
         <v>5399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>592</v>
+        <v>429</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7640,13 @@
         <v>3077</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>581</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -7709,13 +7655,13 @@
         <v>12499</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>596</v>
+        <v>545</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>583</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -7724,13 +7670,13 @@
         <v>15576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>598</v>
+        <v>276</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>599</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7691,13 @@
         <v>134086</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -7760,13 +7706,13 @@
         <v>154735</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>605</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>285</v>
@@ -7775,13 +7721,13 @@
         <v>288821</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7742,13 @@
         <v>214656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="H7" s="7">
         <v>175</v>
@@ -7811,13 +7757,13 @@
         <v>170838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>611</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -7826,13 +7772,13 @@
         <v>385493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7793,13 @@
         <v>64272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -7862,13 +7808,13 @@
         <v>52461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -7877,13 +7823,13 @@
         <v>116733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,7 +7903,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -7966,13 +7912,13 @@
         <v>2819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>610</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7981,13 +7927,13 @@
         <v>4981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +7948,13 @@
         <v>7031</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>632</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -8017,13 +7963,13 @@
         <v>14964</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>616</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>634</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>635</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -8032,13 +7978,13 @@
         <v>21995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +7999,13 @@
         <v>165082</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="H12" s="7">
         <v>222</v>
@@ -8068,13 +8014,13 @@
         <v>215966</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="M12" s="7">
         <v>380</v>
@@ -8083,13 +8029,13 @@
         <v>381048</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8050,13 @@
         <v>308214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -8119,13 +8065,13 @@
         <v>237623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>649</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="M13" s="7">
         <v>539</v>
@@ -8134,13 +8080,13 @@
         <v>545838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8101,13 @@
         <v>104212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -8170,13 +8116,13 @@
         <v>90188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>636</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="M14" s="7">
         <v>194</v>
@@ -8185,13 +8131,13 @@
         <v>194401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,7 +8193,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8259,13 +8205,13 @@
         <v>5551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>663</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -8274,13 +8220,13 @@
         <v>9557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>643</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>664</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -8289,13 +8235,13 @@
         <v>15108</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>644</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8256,13 @@
         <v>24693</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>665</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>646</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -8325,13 +8271,13 @@
         <v>28623</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>649</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>572</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -8343,10 +8289,10 @@
         <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>668</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8307,13 @@
         <v>211886</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -8376,13 +8322,13 @@
         <v>230376</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -8391,13 +8337,13 @@
         <v>442261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,13 +8358,13 @@
         <v>322635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="H19" s="7">
         <v>302</v>
@@ -8427,13 +8373,13 @@
         <v>300020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>683</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>609</v>
@@ -8445,10 +8391,10 @@
         <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,13 +8409,13 @@
         <v>97226</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -8478,13 +8424,13 @@
         <v>91073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="M20" s="7">
         <v>184</v>
@@ -8493,13 +8439,13 @@
         <v>188299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8555,7 +8501,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8567,13 +8513,13 @@
         <v>1921</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>463</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8582,13 +8528,13 @@
         <v>5158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -8597,13 +8543,13 @@
         <v>7079</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>478</v>
+        <v>679</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8564,13 @@
         <v>21509</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>367</v>
+        <v>681</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>682</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -8633,13 +8579,13 @@
         <v>21083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -8648,13 +8594,13 @@
         <v>42592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>701</v>
+        <v>503</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>702</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,13 +8615,13 @@
         <v>220770</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="H24" s="7">
         <v>217</v>
@@ -8684,13 +8630,13 @@
         <v>233000</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>707</v>
+        <v>585</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="M24" s="7">
         <v>417</v>
@@ -8699,13 +8645,13 @@
         <v>453771</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>579</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8720,13 +8666,13 @@
         <v>300804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="H25" s="7">
         <v>256</v>
@@ -8735,13 +8681,13 @@
         <v>277648</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="M25" s="7">
         <v>526</v>
@@ -8750,13 +8696,13 @@
         <v>578452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8771,13 +8717,13 @@
         <v>101044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -8786,13 +8732,13 @@
         <v>108181</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="M26" s="7">
         <v>191</v>
@@ -8801,13 +8747,13 @@
         <v>209225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8863,7 +8809,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8875,13 +8821,13 @@
         <v>2384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>239</v>
+        <v>610</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>271</v>
+        <v>388</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8890,13 +8836,13 @@
         <v>7207</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>643</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>729</v>
+        <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>278</v>
+        <v>711</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -8905,13 +8851,13 @@
         <v>9591</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>629</v>
+        <v>348</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>730</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8926,13 +8872,13 @@
         <v>14062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>731</v>
+        <v>649</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>732</v>
+        <v>578</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>247</v>
+        <v>712</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -8941,13 +8887,13 @@
         <v>27629</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>513</v>
+        <v>713</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -8956,13 +8902,13 @@
         <v>41691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>736</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,13 +8923,13 @@
         <v>200047</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
@@ -8992,13 +8938,13 @@
         <v>218762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>741</v>
+        <v>258</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>742</v>
+        <v>131</v>
       </c>
       <c r="M30" s="7">
         <v>368</v>
@@ -9007,13 +8953,13 @@
         <v>418809</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,13 +8974,13 @@
         <v>203050</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>125</v>
+        <v>724</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="H31" s="7">
         <v>161</v>
@@ -9043,13 +8989,13 @@
         <v>183937</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>81</v>
+        <v>729</v>
       </c>
       <c r="M31" s="7">
         <v>343</v>
@@ -9058,13 +9004,13 @@
         <v>386987</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>732</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9079,13 +9025,13 @@
         <v>57244</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>489</v>
+        <v>734</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="H32" s="7">
         <v>50</v>
@@ -9094,13 +9040,13 @@
         <v>58150</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="M32" s="7">
         <v>101</v>
@@ -9109,13 +9055,13 @@
         <v>115394</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,7 +9117,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9183,13 +9129,13 @@
         <v>8280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>284</v>
+        <v>742</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>164</v>
+        <v>744</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -9198,13 +9144,13 @@
         <v>12509</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>762</v>
+        <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="M34" s="7">
         <v>20</v>
@@ -9213,13 +9159,13 @@
         <v>20789</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>593</v>
+        <v>747</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9234,13 +9180,13 @@
         <v>29953</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>328</v>
+        <v>751</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>767</v>
+        <v>394</v>
       </c>
       <c r="H35" s="7">
         <v>37</v>
@@ -9249,13 +9195,13 @@
         <v>43151</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>330</v>
+        <v>752</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>334</v>
+        <v>753</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="M35" s="7">
         <v>67</v>
@@ -9264,13 +9210,13 @@
         <v>73105</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>635</v>
+        <v>147</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9285,13 +9231,13 @@
         <v>229344</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="H36" s="7">
         <v>302</v>
@@ -9300,13 +9246,13 @@
         <v>357007</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="M36" s="7">
         <v>549</v>
@@ -9315,13 +9261,13 @@
         <v>586351</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>777</v>
+        <v>449</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>763</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9336,13 +9282,13 @@
         <v>252228</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>778</v>
+        <v>95</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="H37" s="7">
         <v>222</v>
@@ -9351,13 +9297,13 @@
         <v>266774</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>579</v>
+        <v>768</v>
       </c>
       <c r="M37" s="7">
         <v>487</v>
@@ -9366,13 +9312,13 @@
         <v>519003</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9387,13 +9333,13 @@
         <v>68663</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>229</v>
+        <v>549</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="H38" s="7">
         <v>83</v>
@@ -9402,13 +9348,13 @@
         <v>98489</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="M38" s="7">
         <v>156</v>
@@ -9417,13 +9363,13 @@
         <v>167152</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9491,13 +9437,13 @@
         <v>21392</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>794</v>
+        <v>614</v>
       </c>
       <c r="H40" s="7">
         <v>38</v>
@@ -9506,13 +9452,13 @@
         <v>41554</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="M40" s="7">
         <v>59</v>
@@ -9521,13 +9467,13 @@
         <v>62946</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>62</v>
+        <v>743</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>598</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9542,13 +9488,13 @@
         <v>100326</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>797</v>
+        <v>152</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>798</v>
+        <v>425</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="H41" s="7">
         <v>138</v>
@@ -9557,13 +9503,13 @@
         <v>147949</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>635</v>
+        <v>225</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>518</v>
+        <v>785</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="M41" s="7">
         <v>232</v>
@@ -9572,13 +9518,13 @@
         <v>248275</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>802</v>
+        <v>143</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9593,13 +9539,13 @@
         <v>1161215</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="H42" s="7">
         <v>1323</v>
@@ -9608,13 +9554,13 @@
         <v>1409845</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="M42" s="7">
         <v>2434</v>
@@ -9623,13 +9569,13 @@
         <v>2571060</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>811</v>
+        <v>409</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9644,13 +9590,13 @@
         <v>1601587</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>814</v>
+        <v>94</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>815</v>
+        <v>377</v>
       </c>
       <c r="H43" s="7">
         <v>1357</v>
@@ -9659,13 +9605,13 @@
         <v>1436840</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>418</v>
+        <v>761</v>
       </c>
       <c r="M43" s="7">
         <v>2880</v>
@@ -9674,13 +9620,13 @@
         <v>3038427</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9695,13 +9641,13 @@
         <v>492660</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="H44" s="7">
         <v>472</v>
@@ -9710,13 +9656,13 @@
         <v>498542</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="M44" s="7">
         <v>938</v>
@@ -9725,13 +9671,13 @@
         <v>991203</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9787,7 +9733,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F376B15-3A89-4D6B-9BD3-1E0E3C83E5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF77AB7-20D6-4BFD-8630-7F4D8A52578E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D762804-1117-4098-ABE4-79FBCC50D06D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{025C53D5-D5D8-4457-B42E-CC08E5258F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="908">
   <si>
     <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -355,7 +355,7 @@
     <t>10,63%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -487,7 +487,7 @@
     <t>6,62%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -610,7 +610,7 @@
     <t>5,45%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,08%</t>
@@ -736,1720 +736,2008 @@
     <t>5,77%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
     <t>42,83%</t>
   </si>
   <si>
     <t>45,15%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
   </si>
   <si>
     <t>13,39%</t>
@@ -2885,8 +3173,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D94C12B-C5B2-4E65-8631-013664C67B97}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025EDDB2-8292-4342-ADD8-3376F13D06C2}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3805,7 +4093,7 @@
         <v>592</v>
       </c>
       <c r="N19" s="7">
-        <v>614574</v>
+        <v>614573</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>137</v>
@@ -3907,7 +4195,7 @@
         <v>1270</v>
       </c>
       <c r="N21" s="7">
-        <v>1327558</v>
+        <v>1327557</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -4543,49 +4831,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3725</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1923</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M34" s="7">
         <v>6</v>
       </c>
-      <c r="D34" s="7">
-        <v>5726</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="N34" s="7">
+        <v>5648</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H34" s="7">
-        <v>7</v>
-      </c>
-      <c r="I34" s="7">
-        <v>7780</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="7">
-        <v>13</v>
-      </c>
-      <c r="N34" s="7">
-        <v>13506</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,43 +4882,43 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D35" s="7">
-        <v>30982</v>
+        <v>16395</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>19</v>
+      </c>
+      <c r="I35" s="7">
+        <v>17904</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H35" s="7">
-        <v>44</v>
-      </c>
-      <c r="I35" s="7">
-        <v>46987</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>37</v>
+      </c>
+      <c r="N35" s="7">
+        <v>34300</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="M35" s="7">
-        <v>78</v>
-      </c>
-      <c r="N35" s="7">
-        <v>77968</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>244</v>
@@ -4645,10 +4933,10 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="D36" s="7">
-        <v>250247</v>
+        <v>149479</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>246</v>
@@ -4660,34 +4948,34 @@
         <v>248</v>
       </c>
       <c r="H36" s="7">
-        <v>338</v>
+        <v>181</v>
       </c>
       <c r="I36" s="7">
-        <v>349839</v>
+        <v>168635</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>335</v>
+      </c>
+      <c r="N36" s="7">
+        <v>318114</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="M36" s="7">
-        <v>598</v>
-      </c>
-      <c r="N36" s="7">
-        <v>600087</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,43 +4984,43 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="D37" s="7">
-        <v>200370</v>
+        <v>112368</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>164</v>
+      </c>
+      <c r="I37" s="7">
+        <v>149845</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H37" s="7">
-        <v>262</v>
-      </c>
-      <c r="I37" s="7">
-        <v>262050</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>280</v>
+      </c>
+      <c r="N37" s="7">
+        <v>262213</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="M37" s="7">
-        <v>469</v>
-      </c>
-      <c r="N37" s="7">
-        <v>462420</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>261</v>
@@ -4747,10 +5035,10 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38" s="7">
-        <v>14373</v>
+        <v>9846</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>263</v>
@@ -4762,34 +5050,34 @@
         <v>265</v>
       </c>
       <c r="H38" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I38" s="7">
-        <v>10185</v>
+        <v>4627</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>266</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>15</v>
+      </c>
+      <c r="N38" s="7">
+        <v>14473</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="M38" s="7">
-        <v>25</v>
-      </c>
-      <c r="N38" s="7">
-        <v>24558</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,10 +5086,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D39" s="7">
-        <v>501697</v>
+        <v>291814</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -4813,10 +5101,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I39" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -4828,10 +5116,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1183</v>
+        <v>673</v>
       </c>
       <c r="N39" s="7">
-        <v>1178539</v>
+        <v>634748</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -4845,55 +5133,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>28153</v>
+        <v>2000</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5857</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H40" s="7">
-        <v>44</v>
-      </c>
-      <c r="I40" s="7">
-        <v>44795</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>7</v>
+      </c>
+      <c r="N40" s="7">
+        <v>7858</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L40" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M40" s="7">
-        <v>69</v>
-      </c>
-      <c r="N40" s="7">
-        <v>72947</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q40" s="7" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,49 +5190,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="D41" s="7">
-        <v>137767</v>
+        <v>14587</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="H41" s="7">
+        <v>25</v>
+      </c>
+      <c r="I41" s="7">
+        <v>29082</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H41" s="7">
-        <v>165</v>
-      </c>
-      <c r="I41" s="7">
-        <v>172369</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>41</v>
+      </c>
+      <c r="N41" s="7">
+        <v>43669</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M41" s="7">
-        <v>303</v>
-      </c>
-      <c r="N41" s="7">
-        <v>310136</v>
-      </c>
-      <c r="O41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,49 +5241,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1292</v>
+        <v>106</v>
       </c>
       <c r="D42" s="7">
-        <v>1314131</v>
+        <v>100768</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="H42" s="7">
+        <v>157</v>
+      </c>
+      <c r="I42" s="7">
+        <v>181204</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="7">
-        <v>1498</v>
-      </c>
-      <c r="I42" s="7">
-        <v>1539200</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>263</v>
+      </c>
+      <c r="N42" s="7">
+        <v>281972</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="M42" s="7">
-        <v>2790</v>
-      </c>
-      <c r="N42" s="7">
-        <v>2853331</v>
-      </c>
-      <c r="O42" s="7" t="s">
+      <c r="P42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,49 +5292,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>1493</v>
+        <v>91</v>
       </c>
       <c r="D43" s="7">
-        <v>1523094</v>
+        <v>88001</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>98</v>
+      </c>
+      <c r="I43" s="7">
+        <v>112206</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H43" s="7">
-        <v>1472</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1497868</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>189</v>
+      </c>
+      <c r="N43" s="7">
+        <v>200207</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="L43" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M43" s="7">
-        <v>2965</v>
-      </c>
-      <c r="N43" s="7">
-        <v>3020962</v>
-      </c>
-      <c r="O43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,49 +5343,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="D44" s="7">
-        <v>269850</v>
+        <v>4526</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H44" s="7">
+        <v>5</v>
+      </c>
+      <c r="I44" s="7">
+        <v>5558</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="M44" s="7">
+        <v>10</v>
+      </c>
+      <c r="N44" s="7">
+        <v>10085</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H44" s="7">
-        <v>116</v>
-      </c>
-      <c r="I44" s="7">
-        <v>122906</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="M44" s="7">
-        <v>378</v>
-      </c>
-      <c r="N44" s="7">
-        <v>392756</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,63 +5394,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>220</v>
+      </c>
+      <c r="D45" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>290</v>
+      </c>
+      <c r="I45" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>510</v>
+      </c>
+      <c r="N45" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>25</v>
+      </c>
+      <c r="D46" s="7">
+        <v>28153</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H46" s="7">
+        <v>44</v>
+      </c>
+      <c r="I46" s="7">
+        <v>44795</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M46" s="7">
+        <v>69</v>
+      </c>
+      <c r="N46" s="7">
+        <v>72947</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>138</v>
+      </c>
+      <c r="D47" s="7">
+        <v>137767</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H47" s="7">
+        <v>165</v>
+      </c>
+      <c r="I47" s="7">
+        <v>172369</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M47" s="7">
+        <v>303</v>
+      </c>
+      <c r="N47" s="7">
+        <v>310136</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1292</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1314131</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1498</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1539200</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2790</v>
+      </c>
+      <c r="N48" s="7">
+        <v>2853331</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1493</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1523093</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1472</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1497868</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2965</v>
+      </c>
+      <c r="N49" s="7">
+        <v>3020962</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>262</v>
+      </c>
+      <c r="D50" s="7">
+        <v>269850</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H50" s="7">
+        <v>116</v>
+      </c>
+      <c r="I50" s="7">
+        <v>122906</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M50" s="7">
+        <v>378</v>
+      </c>
+      <c r="N50" s="7">
+        <v>392756</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3210</v>
       </c>
-      <c r="D45" s="7">
-        <v>3272994</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3272993</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3295</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3377138</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6505</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6650132</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>308</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5175,8 +5772,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C50BF67-AB1B-420F-830D-0DFC3A9E235F}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A55F9F-A871-4840-A3CD-A5D352700854}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5192,7 +5789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5299,13 +5896,13 @@
         <v>3517</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5314,13 +5911,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5329,13 +5926,13 @@
         <v>4730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,10 +5950,10 @@
         <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5365,13 +5962,13 @@
         <v>18447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -5380,13 +5977,13 @@
         <v>34600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5998,13 @@
         <v>151419</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="H6" s="7">
         <v>162</v>
@@ -5419,10 +6016,10 @@
         <v>80</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="M6" s="7">
         <v>309</v>
@@ -5431,13 +6028,13 @@
         <v>314982</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +6049,13 @@
         <v>229447</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -5467,13 +6064,13 @@
         <v>208202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="M7" s="7">
         <v>430</v>
@@ -5482,13 +6079,13 @@
         <v>437649</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +6100,13 @@
         <v>50752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -5518,13 +6115,13 @@
         <v>37776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -5533,13 +6130,13 @@
         <v>88528</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +6204,13 @@
         <v>3090</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5622,13 +6219,13 @@
         <v>13181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5637,13 +6234,13 @@
         <v>16271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +6255,13 @@
         <v>29272</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -5673,13 +6270,13 @@
         <v>54211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -5688,13 +6285,13 @@
         <v>83483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +6306,13 @@
         <v>208926</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="H12" s="7">
         <v>202</v>
@@ -5724,13 +6321,13 @@
         <v>215812</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>405</v>
@@ -5739,13 +6336,13 @@
         <v>424738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +6357,13 @@
         <v>365511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="H13" s="7">
         <v>259</v>
@@ -5775,13 +6372,13 @@
         <v>273791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="M13" s="7">
         <v>616</v>
@@ -5790,13 +6387,13 @@
         <v>639302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +6408,13 @@
         <v>78334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -5826,13 +6423,13 @@
         <v>53260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -5841,13 +6438,13 @@
         <v>131593</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +6512,13 @@
         <v>4385</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5930,13 +6527,13 @@
         <v>5264</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5948,10 +6545,10 @@
         <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +6563,13 @@
         <v>48812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -5981,13 +6578,13 @@
         <v>53853</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -5996,13 +6593,13 @@
         <v>102665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6614,13 @@
         <v>261864</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="H18" s="7">
         <v>263</v>
@@ -6032,13 +6629,13 @@
         <v>276088</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="M18" s="7">
         <v>516</v>
@@ -6047,13 +6644,13 @@
         <v>537952</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6665,13 @@
         <v>320954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="H19" s="7">
         <v>295</v>
@@ -6083,13 +6680,13 @@
         <v>320234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="M19" s="7">
         <v>599</v>
@@ -6098,13 +6695,13 @@
         <v>641188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6716,13 @@
         <v>44918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -6134,13 +6731,13 @@
         <v>54413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -6149,13 +6746,13 @@
         <v>99331</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,7 +6826,7 @@
         <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6238,13 +6835,13 @@
         <v>8345</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6253,13 +6850,13 @@
         <v>14531</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6871,13 @@
         <v>40251</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -6289,13 +6886,13 @@
         <v>45801</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -6304,13 +6901,13 @@
         <v>86053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6922,13 @@
         <v>239643</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="H24" s="7">
         <v>246</v>
@@ -6340,13 +6937,13 @@
         <v>277376</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="M24" s="7">
         <v>463</v>
@@ -6355,13 +6952,13 @@
         <v>517018</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6973,13 @@
         <v>272388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="H25" s="7">
         <v>212</v>
@@ -6391,13 +6988,13 @@
         <v>247352</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="M25" s="7">
         <v>453</v>
@@ -6406,13 +7003,13 @@
         <v>519740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +7024,13 @@
         <v>52083</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -6442,13 +7039,13 @@
         <v>35201</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -6457,13 +7054,13 @@
         <v>87284</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,10 +7128,10 @@
         <v>4389</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>22</v>
@@ -6546,13 +7143,13 @@
         <v>6308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>263</v>
+        <v>499</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -6561,13 +7158,13 @@
         <v>10697</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +7179,13 @@
         <v>36753</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -6597,13 +7194,13 @@
         <v>52838</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -6612,13 +7209,13 @@
         <v>89591</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +7230,13 @@
         <v>196076</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="H30" s="7">
         <v>194</v>
@@ -6648,13 +7245,13 @@
         <v>217313</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="M30" s="7">
         <v>372</v>
@@ -6663,13 +7260,13 @@
         <v>413389</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +7281,13 @@
         <v>170571</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="H31" s="7">
         <v>144</v>
@@ -6702,25 +7299,25 @@
         <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="M31" s="7">
         <v>300</v>
       </c>
       <c r="N31" s="7">
-        <v>325013</v>
+        <v>325012</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +7332,13 @@
         <v>20586</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>271</v>
+        <v>528</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -6750,13 +7347,13 @@
         <v>14820</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>144</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -6765,13 +7362,13 @@
         <v>35406</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,7 +7410,7 @@
         <v>796</v>
       </c>
       <c r="N33" s="7">
-        <v>874096</v>
+        <v>874095</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -6833,49 +7430,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>8842</v>
+        <v>3910</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="H34" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>11230</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>504</v>
+        <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>506</v>
+        <v>109</v>
       </c>
       <c r="M34" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N34" s="7">
-        <v>20072</v>
+        <v>3910</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>22</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,49 +7481,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D35" s="7">
-        <v>66958</v>
+        <v>25381</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>386</v>
+        <v>541</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="H35" s="7">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I35" s="7">
-        <v>100373</v>
+        <v>49835</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="M35" s="7">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N35" s="7">
-        <v>167331</v>
+        <v>75216</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,49 +7532,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="D36" s="7">
-        <v>272079</v>
+        <v>156377</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>446</v>
+        <v>551</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="H36" s="7">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="I36" s="7">
-        <v>399210</v>
+        <v>185288</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>519</v>
+        <v>133</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="M36" s="7">
-        <v>619</v>
+        <v>323</v>
       </c>
       <c r="N36" s="7">
-        <v>671289</v>
+        <v>341665</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,49 +7583,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="D37" s="7">
-        <v>181833</v>
+        <v>105706</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="H37" s="7">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="I37" s="7">
-        <v>206137</v>
+        <v>104911</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="M37" s="7">
-        <v>360</v>
+        <v>201</v>
       </c>
       <c r="N37" s="7">
-        <v>387970</v>
+        <v>210617</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,49 +7634,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D38" s="7">
-        <v>24634</v>
+        <v>15315</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="H38" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I38" s="7">
-        <v>18982</v>
+        <v>12049</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="M38" s="7">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N38" s="7">
-        <v>43615</v>
+        <v>27364</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,10 +7685,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>499</v>
+        <v>279</v>
       </c>
       <c r="D39" s="7">
-        <v>554346</v>
+        <v>306689</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7103,10 +7700,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>689</v>
+        <v>343</v>
       </c>
       <c r="I39" s="7">
-        <v>735932</v>
+        <v>352083</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -7118,10 +7715,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1188</v>
+        <v>622</v>
       </c>
       <c r="N39" s="7">
-        <v>1290278</v>
+        <v>658772</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7135,55 +7732,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D40" s="7">
-        <v>30408</v>
+        <v>4932</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>542</v>
+        <v>227</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H40" s="7">
+        <v>10</v>
+      </c>
+      <c r="I40" s="7">
+        <v>11230</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="M40" s="7">
         <v>14</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="H40" s="7">
-        <v>40</v>
-      </c>
-      <c r="I40" s="7">
-        <v>45541</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="M40" s="7">
-        <v>68</v>
-      </c>
       <c r="N40" s="7">
-        <v>75950</v>
+        <v>16162</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>155</v>
+        <v>579</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>19</v>
+        <v>580</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>197</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,49 +7789,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="D41" s="7">
-        <v>238201</v>
+        <v>41577</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="H41" s="7">
-        <v>300</v>
+        <v>46</v>
       </c>
       <c r="I41" s="7">
-        <v>325523</v>
+        <v>50538</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>302</v>
+        <v>586</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="M41" s="7">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="N41" s="7">
-        <v>563723</v>
+        <v>92115</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,49 +7840,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1242</v>
+        <v>102</v>
       </c>
       <c r="D42" s="7">
-        <v>1330006</v>
+        <v>115702</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="H42" s="7">
-        <v>1442</v>
+        <v>194</v>
       </c>
       <c r="I42" s="7">
-        <v>1549362</v>
+        <v>213922</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>557</v>
+        <v>220</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="M42" s="7">
-        <v>2684</v>
+        <v>296</v>
       </c>
       <c r="N42" s="7">
-        <v>2879368</v>
+        <v>329625</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,49 +7891,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>1452</v>
+        <v>69</v>
       </c>
       <c r="D43" s="7">
-        <v>1540703</v>
+        <v>76127</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>442</v>
+        <v>598</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="H43" s="7">
-        <v>1306</v>
+        <v>90</v>
       </c>
       <c r="I43" s="7">
-        <v>1410159</v>
+        <v>101226</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="M43" s="7">
-        <v>2758</v>
+        <v>159</v>
       </c>
       <c r="N43" s="7">
-        <v>2950862</v>
+        <v>177354</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,49 +7942,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="D44" s="7">
-        <v>271306</v>
+        <v>9319</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>570</v>
+        <v>229</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>436</v>
+        <v>607</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="H44" s="7">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="I44" s="7">
-        <v>214452</v>
+        <v>6932</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>572</v>
+        <v>347</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>573</v>
+        <v>500</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="M44" s="7">
-        <v>456</v>
+        <v>15</v>
       </c>
       <c r="N44" s="7">
-        <v>485758</v>
+        <v>16252</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>455</v>
+        <v>580</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>575</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,63 +7993,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>220</v>
+      </c>
+      <c r="D45" s="7">
+        <v>247657</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>346</v>
+      </c>
+      <c r="I45" s="7">
+        <v>383849</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>566</v>
+      </c>
+      <c r="N45" s="7">
+        <v>631507</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>28</v>
+      </c>
+      <c r="D46" s="7">
+        <v>30408</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="H46" s="7">
+        <v>40</v>
+      </c>
+      <c r="I46" s="7">
+        <v>45541</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M46" s="7">
+        <v>68</v>
+      </c>
+      <c r="N46" s="7">
+        <v>75950</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>216</v>
+      </c>
+      <c r="D47" s="7">
+        <v>238201</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H47" s="7">
+        <v>300</v>
+      </c>
+      <c r="I47" s="7">
+        <v>325523</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="M47" s="7">
+        <v>516</v>
+      </c>
+      <c r="N47" s="7">
+        <v>563723</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1242</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1330006</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1442</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1549362</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2684</v>
+      </c>
+      <c r="N48" s="7">
+        <v>2879368</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1452</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1540703</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1306</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1410159</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2758</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2950862</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>257</v>
+      </c>
+      <c r="D50" s="7">
+        <v>271306</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="H50" s="7">
+        <v>199</v>
+      </c>
+      <c r="I50" s="7">
+        <v>214452</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="M50" s="7">
+        <v>456</v>
+      </c>
+      <c r="N50" s="7">
+        <v>485758</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3195</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3410624</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3287</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3545037</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6482</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6955661</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>308</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7465,8 +8371,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD9760F-25AC-45D8-81E7-0845CE0EC7CD}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8025F76-7B0E-437D-9F43-86136974804C}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7482,7 +8388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7589,13 +8495,13 @@
         <v>1095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7607,10 +8513,10 @@
         <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>535</v>
+        <v>648</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -7619,13 +8525,13 @@
         <v>5399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>579</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +8546,13 @@
         <v>3077</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>581</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -7655,13 +8561,13 @@
         <v>12499</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -7670,10 +8576,10 @@
         <v>15576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>120</v>
@@ -7691,13 +8597,13 @@
         <v>134086</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -7706,10 +8612,10 @@
         <v>154735</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>174</v>
@@ -7721,13 +8627,13 @@
         <v>288821</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +8648,13 @@
         <v>214656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="H7" s="7">
         <v>175</v>
@@ -7760,10 +8666,10 @@
         <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -7772,13 +8678,13 @@
         <v>385493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +8699,13 @@
         <v>64272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -7808,13 +8714,13 @@
         <v>52461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>605</v>
+        <v>672</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -7823,13 +8729,13 @@
         <v>116733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>606</v>
+        <v>673</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>607</v>
+        <v>674</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>608</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,7 +8809,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>609</v>
+        <v>676</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -7912,13 +8818,13 @@
         <v>2819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>610</v>
+        <v>677</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7927,13 +8833,13 @@
         <v>4981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>613</v>
+        <v>680</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>614</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +8854,13 @@
         <v>7031</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>609</v>
+        <v>676</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>615</v>
+        <v>682</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -7963,13 +8869,13 @@
         <v>14964</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>616</v>
+        <v>683</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>540</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -7978,10 +8884,10 @@
         <v>21995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>609</v>
+        <v>676</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>71</v>
@@ -7999,13 +8905,13 @@
         <v>165082</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>617</v>
+        <v>684</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>618</v>
+        <v>685</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>619</v>
+        <v>686</v>
       </c>
       <c r="H12" s="7">
         <v>222</v>
@@ -8014,13 +8920,13 @@
         <v>215966</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>620</v>
+        <v>687</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>621</v>
+        <v>688</v>
       </c>
       <c r="M12" s="7">
         <v>380</v>
@@ -8029,13 +8935,13 @@
         <v>381048</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>622</v>
+        <v>689</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>623</v>
+        <v>690</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>624</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8956,13 @@
         <v>308214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>625</v>
+        <v>692</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>626</v>
+        <v>693</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>627</v>
+        <v>694</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -8065,13 +8971,13 @@
         <v>237623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>628</v>
+        <v>695</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>696</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>629</v>
+        <v>697</v>
       </c>
       <c r="M13" s="7">
         <v>539</v>
@@ -8080,13 +8986,13 @@
         <v>545838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>630</v>
+        <v>698</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>631</v>
+        <v>699</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>632</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +9007,13 @@
         <v>104212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>633</v>
+        <v>701</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>635</v>
+        <v>703</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -8116,13 +9022,13 @@
         <v>90188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>636</v>
+        <v>704</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>637</v>
+        <v>705</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="M14" s="7">
         <v>194</v>
@@ -8131,13 +9037,13 @@
         <v>194401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>639</v>
+        <v>707</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>640</v>
+        <v>708</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>641</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,13 +9111,13 @@
         <v>5551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>642</v>
+        <v>710</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>711</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -8220,7 +9126,7 @@
         <v>9557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>643</v>
+        <v>712</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>62</v>
@@ -8235,13 +9141,13 @@
         <v>15108</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>713</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,10 +9165,10 @@
         <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -8271,13 +9177,13 @@
         <v>28623</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -8307,13 +9213,13 @@
         <v>211886</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -8322,13 +9228,13 @@
         <v>230376</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>655</v>
+        <v>725</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -8337,13 +9243,13 @@
         <v>442261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>656</v>
+        <v>726</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>657</v>
+        <v>727</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>658</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +9264,13 @@
         <v>322635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>659</v>
+        <v>729</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
       <c r="H19" s="7">
         <v>302</v>
@@ -8373,13 +9279,13 @@
         <v>300020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>662</v>
+        <v>732</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>663</v>
+        <v>733</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="M19" s="7">
         <v>609</v>
@@ -8391,10 +9297,10 @@
         <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>664</v>
+        <v>734</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>665</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +9315,13 @@
         <v>97226</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>666</v>
+        <v>736</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>667</v>
+        <v>737</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>668</v>
+        <v>738</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -8424,13 +9330,13 @@
         <v>91073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>669</v>
+        <v>739</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>670</v>
+        <v>740</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>671</v>
+        <v>741</v>
       </c>
       <c r="M20" s="7">
         <v>184</v>
@@ -8439,13 +9345,13 @@
         <v>188299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>672</v>
+        <v>742</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>673</v>
+        <v>743</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>674</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,13 +9419,13 @@
         <v>1921</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>675</v>
+        <v>745</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8528,10 +9434,10 @@
         <v>5158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>676</v>
+        <v>746</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>677</v>
+        <v>236</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>202</v>
@@ -8543,13 +9449,13 @@
         <v>7079</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>678</v>
+        <v>747</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>679</v>
+        <v>748</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,13 +9470,13 @@
         <v>21509</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>680</v>
+        <v>749</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>681</v>
+        <v>750</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>682</v>
+        <v>751</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -8582,10 +9488,10 @@
         <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>683</v>
+        <v>752</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>684</v>
+        <v>753</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -8594,13 +9500,13 @@
         <v>42592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>754</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,13 +9521,13 @@
         <v>220770</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>685</v>
+        <v>756</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>686</v>
+        <v>757</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>687</v>
+        <v>758</v>
       </c>
       <c r="H24" s="7">
         <v>217</v>
@@ -8630,13 +9536,13 @@
         <v>233000</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>688</v>
+        <v>759</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>689</v>
+        <v>760</v>
       </c>
       <c r="M24" s="7">
         <v>417</v>
@@ -8645,13 +9551,13 @@
         <v>453771</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>690</v>
+        <v>761</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>691</v>
+        <v>762</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>692</v>
+        <v>763</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8666,13 +9572,13 @@
         <v>300804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>693</v>
+        <v>764</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>694</v>
+        <v>765</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>695</v>
+        <v>766</v>
       </c>
       <c r="H25" s="7">
         <v>256</v>
@@ -8681,13 +9587,13 @@
         <v>277648</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>696</v>
+        <v>767</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>697</v>
+        <v>768</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>698</v>
+        <v>769</v>
       </c>
       <c r="M25" s="7">
         <v>526</v>
@@ -8696,13 +9602,13 @@
         <v>578452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>699</v>
+        <v>770</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>700</v>
+        <v>771</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>701</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,13 +9623,13 @@
         <v>101044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>702</v>
+        <v>773</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>703</v>
+        <v>774</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>704</v>
+        <v>775</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -8732,13 +9638,13 @@
         <v>108181</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>705</v>
+        <v>776</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>706</v>
+        <v>777</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>707</v>
+        <v>778</v>
       </c>
       <c r="M26" s="7">
         <v>191</v>
@@ -8747,13 +9653,13 @@
         <v>209225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>708</v>
+        <v>779</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>709</v>
+        <v>780</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>710</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,13 +9727,13 @@
         <v>2384</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>610</v>
+        <v>677</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8836,13 +9742,13 @@
         <v>7207</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>643</v>
+        <v>712</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>711</v>
+        <v>782</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -8854,7 +9760,7 @@
         <v>106</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>227</v>
@@ -8872,13 +9778,13 @@
         <v>14062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>712</v>
+        <v>567</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -8887,13 +9793,13 @@
         <v>27629</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>713</v>
+        <v>542</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>714</v>
+        <v>783</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>715</v>
+        <v>784</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -8902,10 +9808,10 @@
         <v>41691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>716</v>
+        <v>785</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>271</v>
+        <v>528</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>188</v>
@@ -8923,13 +9829,13 @@
         <v>200047</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>717</v>
+        <v>786</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>718</v>
+        <v>787</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>719</v>
+        <v>788</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
@@ -8938,10 +9844,10 @@
         <v>218762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>720</v>
+        <v>789</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>258</v>
+        <v>696</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>131</v>
@@ -8953,13 +9859,13 @@
         <v>418809</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>721</v>
+        <v>790</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>722</v>
+        <v>791</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>723</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +9880,13 @@
         <v>203050</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>724</v>
+        <v>793</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>725</v>
+        <v>794</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>726</v>
+        <v>795</v>
       </c>
       <c r="H31" s="7">
         <v>161</v>
@@ -8989,13 +9895,13 @@
         <v>183937</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>727</v>
+        <v>796</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>728</v>
+        <v>797</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>729</v>
+        <v>798</v>
       </c>
       <c r="M31" s="7">
         <v>343</v>
@@ -9004,13 +9910,13 @@
         <v>386987</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>730</v>
+        <v>799</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>731</v>
+        <v>800</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>732</v>
+        <v>801</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9025,13 +9931,13 @@
         <v>57244</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>733</v>
+        <v>802</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>734</v>
+        <v>803</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>735</v>
+        <v>804</v>
       </c>
       <c r="H32" s="7">
         <v>50</v>
@@ -9040,13 +9946,13 @@
         <v>58150</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>736</v>
+        <v>805</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>737</v>
+        <v>569</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>738</v>
+        <v>806</v>
       </c>
       <c r="M32" s="7">
         <v>101</v>
@@ -9055,13 +9961,13 @@
         <v>115394</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>739</v>
+        <v>807</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>740</v>
+        <v>808</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>741</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9123,49 +10029,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>8280</v>
+        <v>946</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>742</v>
+        <v>346</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>743</v>
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>744</v>
+        <v>68</v>
       </c>
       <c r="H34" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>12509</v>
+        <v>3831</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>745</v>
+        <v>153</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>19</v>
+        <v>423</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>746</v>
+        <v>810</v>
       </c>
       <c r="M34" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>20789</v>
+        <v>4777</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>747</v>
+        <v>811</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>748</v>
+        <v>646</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>749</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9174,49 +10080,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D35" s="7">
-        <v>29953</v>
+        <v>12489</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>750</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>751</v>
+        <v>813</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>394</v>
+        <v>814</v>
       </c>
       <c r="H35" s="7">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I35" s="7">
-        <v>43151</v>
+        <v>26251</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>752</v>
+        <v>275</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>753</v>
+        <v>315</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>754</v>
+        <v>815</v>
       </c>
       <c r="M35" s="7">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="N35" s="7">
-        <v>73105</v>
+        <v>38740</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>755</v>
+        <v>816</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>147</v>
+        <v>817</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>756</v>
+        <v>818</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9225,49 +10131,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="D36" s="7">
-        <v>229344</v>
+        <v>121565</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>757</v>
+        <v>819</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>758</v>
+        <v>820</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>759</v>
+        <v>821</v>
       </c>
       <c r="H36" s="7">
-        <v>302</v>
+        <v>158</v>
       </c>
       <c r="I36" s="7">
-        <v>357007</v>
+        <v>164649</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>760</v>
+        <v>822</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>761</v>
+        <v>823</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
       <c r="M36" s="7">
-        <v>549</v>
+        <v>277</v>
       </c>
       <c r="N36" s="7">
-        <v>586351</v>
+        <v>286214</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>291</v>
+        <v>824</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>449</v>
+        <v>825</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>763</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9276,49 +10182,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="D37" s="7">
-        <v>252228</v>
+        <v>155879</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>95</v>
+        <v>827</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>764</v>
+        <v>828</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>765</v>
+        <v>829</v>
       </c>
       <c r="H37" s="7">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="I37" s="7">
-        <v>266774</v>
+        <v>140510</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>766</v>
+        <v>830</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>767</v>
+        <v>831</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>768</v>
+        <v>832</v>
       </c>
       <c r="M37" s="7">
-        <v>487</v>
+        <v>279</v>
       </c>
       <c r="N37" s="7">
-        <v>519003</v>
+        <v>296390</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>769</v>
+        <v>833</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>770</v>
+        <v>834</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>771</v>
+        <v>835</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9327,49 +10233,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D38" s="7">
-        <v>68663</v>
+        <v>41482</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>772</v>
+        <v>836</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>549</v>
+        <v>837</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>773</v>
+        <v>838</v>
       </c>
       <c r="H38" s="7">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="I38" s="7">
-        <v>98489</v>
+        <v>42520</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>774</v>
+        <v>839</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>775</v>
+        <v>840</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>776</v>
+        <v>507</v>
       </c>
       <c r="M38" s="7">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="N38" s="7">
-        <v>167152</v>
+        <v>84002</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>777</v>
+        <v>841</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>778</v>
+        <v>842</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>779</v>
+        <v>843</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9378,10 +10284,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>624</v>
+        <v>323</v>
       </c>
       <c r="D39" s="7">
-        <v>588468</v>
+        <v>332361</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9393,10 +10299,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I39" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9408,10 +10314,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1279</v>
+        <v>677</v>
       </c>
       <c r="N39" s="7">
-        <v>1366400</v>
+        <v>710123</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9425,55 +10331,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D40" s="7">
-        <v>21392</v>
+        <v>7334</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>237</v>
+        <v>499</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>780</v>
+        <v>386</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>614</v>
+        <v>534</v>
       </c>
       <c r="H40" s="7">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I40" s="7">
-        <v>41554</v>
+        <v>8678</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>781</v>
+        <v>844</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>782</v>
+        <v>846</v>
       </c>
       <c r="M40" s="7">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="N40" s="7">
-        <v>62946</v>
+        <v>16012</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>783</v>
+        <v>847</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>743</v>
+        <v>197</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9482,49 +10388,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D41" s="7">
-        <v>100326</v>
+        <v>17464</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>152</v>
+        <v>848</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>425</v>
+        <v>581</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>784</v>
+        <v>849</v>
       </c>
       <c r="H41" s="7">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I41" s="7">
-        <v>147949</v>
+        <v>16901</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>225</v>
+        <v>850</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>785</v>
+        <v>108</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>786</v>
+        <v>851</v>
       </c>
       <c r="M41" s="7">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="N41" s="7">
-        <v>248275</v>
+        <v>34365</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>787</v>
+        <v>642</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>143</v>
+        <v>852</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>788</v>
+        <v>853</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9533,49 +10439,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1111</v>
+        <v>128</v>
       </c>
       <c r="D42" s="7">
-        <v>1161215</v>
+        <v>107779</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>789</v>
+        <v>854</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>790</v>
+        <v>855</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>791</v>
+        <v>856</v>
       </c>
       <c r="H42" s="7">
-        <v>1323</v>
+        <v>144</v>
       </c>
       <c r="I42" s="7">
-        <v>1409845</v>
+        <v>192357</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>792</v>
+        <v>857</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>793</v>
+        <v>858</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>794</v>
+        <v>859</v>
       </c>
       <c r="M42" s="7">
-        <v>2434</v>
+        <v>272</v>
       </c>
       <c r="N42" s="7">
-        <v>2571060</v>
+        <v>300137</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>795</v>
+        <v>860</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>409</v>
+        <v>861</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>796</v>
+        <v>862</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9584,49 +10490,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>1523</v>
+        <v>114</v>
       </c>
       <c r="D43" s="7">
-        <v>1601587</v>
+        <v>96349</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>797</v>
+        <v>863</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="H43" s="7">
         <v>94</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H43" s="7">
-        <v>1357</v>
-      </c>
       <c r="I43" s="7">
-        <v>1436840</v>
+        <v>126264</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>798</v>
+        <v>865</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>799</v>
+        <v>866</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>761</v>
+        <v>867</v>
       </c>
       <c r="M43" s="7">
-        <v>2880</v>
+        <v>208</v>
       </c>
       <c r="N43" s="7">
-        <v>3038427</v>
+        <v>222613</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>800</v>
+        <v>868</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>801</v>
+        <v>869</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>802</v>
+        <v>870</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9635,49 +10541,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>466</v>
+        <v>32</v>
       </c>
       <c r="D44" s="7">
-        <v>492660</v>
+        <v>27181</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>803</v>
+        <v>871</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>804</v>
+        <v>853</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>805</v>
+        <v>872</v>
       </c>
       <c r="H44" s="7">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="I44" s="7">
-        <v>498542</v>
+        <v>55969</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>806</v>
+        <v>873</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>807</v>
+        <v>874</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>808</v>
+        <v>875</v>
       </c>
       <c r="M44" s="7">
-        <v>938</v>
+        <v>76</v>
       </c>
       <c r="N44" s="7">
-        <v>991203</v>
+        <v>83150</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>809</v>
+        <v>876</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>810</v>
+        <v>877</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>811</v>
+        <v>878</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9686,63 +10592,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>301</v>
+      </c>
+      <c r="D45" s="7">
+        <v>256108</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>301</v>
+      </c>
+      <c r="I45" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>602</v>
+      </c>
+      <c r="N45" s="7">
+        <v>656277</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>21</v>
+      </c>
+      <c r="D46" s="7">
+        <v>21392</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="H46" s="7">
+        <v>38</v>
+      </c>
+      <c r="I46" s="7">
+        <v>41554</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="M46" s="7">
+        <v>59</v>
+      </c>
+      <c r="N46" s="7">
+        <v>62946</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>94</v>
+      </c>
+      <c r="D47" s="7">
+        <v>100326</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="H47" s="7">
+        <v>138</v>
+      </c>
+      <c r="I47" s="7">
+        <v>147949</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="M47" s="7">
+        <v>232</v>
+      </c>
+      <c r="N47" s="7">
+        <v>248275</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1111</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1161215</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1323</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1409845</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2434</v>
+      </c>
+      <c r="N48" s="7">
+        <v>2571060</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1523</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1601587</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1357</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1436840</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2880</v>
+      </c>
+      <c r="N49" s="7">
+        <v>3038427</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>466</v>
+      </c>
+      <c r="D50" s="7">
+        <v>492660</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="H50" s="7">
+        <v>472</v>
+      </c>
+      <c r="I50" s="7">
+        <v>498542</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="M50" s="7">
+        <v>938</v>
+      </c>
+      <c r="N50" s="7">
+        <v>991203</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3215</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3377181</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3328</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3534730</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6543</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6911911</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>308</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
